--- a/ProcessedData/conf_svm_transcript_2.xlsx
+++ b/ProcessedData/conf_svm_transcript_2.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,16 +405,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.004845231753633</v>
+        <v>0.5788522278476587</v>
       </c>
       <c r="C2">
-        <v>-2.137072212584675</v>
+        <v>3.824846404665202</v>
       </c>
       <c r="D2">
-        <v>-3.305415356691994</v>
+        <v>12.27040449011918</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -431,16 +425,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.273673726485986</v>
+        <v>-0.4924554487025622</v>
       </c>
       <c r="C3">
-        <v>-2.229530259794053</v>
+        <v>2.552550374338083</v>
       </c>
       <c r="D3">
-        <v>-2.157648976651039</v>
+        <v>9.054039941283554</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.439844193104972</v>
+        <v>-1.520069992597338</v>
       </c>
       <c r="C4">
-        <v>-0.2193078955704864</v>
+        <v>0.6780891168515093</v>
       </c>
       <c r="D4">
-        <v>-0.03314052457198968</v>
+        <v>1.602138591923526</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.57780454537494</v>
+        <v>-1.507614599362301</v>
       </c>
       <c r="C5">
-        <v>-0.8106429520249665</v>
+        <v>0.824307412884659</v>
       </c>
       <c r="D5">
-        <v>-0.4267102365943881</v>
+        <v>2.395415563346563</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -482,16 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-1.915003414769344</v>
+        <v>1.009736281028734</v>
       </c>
       <c r="C6">
-        <v>-0.9630648111013164</v>
+        <v>3.273198744679435</v>
       </c>
       <c r="D6">
-        <v>-2.700200131664766</v>
+        <v>9.924082676200968</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06178746367703447</v>
+        <v>-1.363506489799539</v>
       </c>
       <c r="C7">
-        <v>-0.4376715915224434</v>
+        <v>0.402187666017283</v>
       </c>
       <c r="D7">
-        <v>0.2497014037098694</v>
+        <v>2.711009473637845</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -516,16 +525,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1.920259539667604</v>
+        <v>1.565032344816782</v>
       </c>
       <c r="C8">
-        <v>0.4290406700077902</v>
+        <v>2.718061388045483</v>
       </c>
       <c r="D8">
-        <v>-2.214451225456828</v>
+        <v>7.190490818825528</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -533,16 +545,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.9884396973276246</v>
+        <v>-0.653550307335498</v>
       </c>
       <c r="C9">
-        <v>-0.7013203283835946</v>
+        <v>1.822257733424743</v>
       </c>
       <c r="D9">
-        <v>-1.110761197747264</v>
+        <v>5.421715976551415</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -550,16 +565,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1.189071281403139</v>
+        <v>0.6938128193433997</v>
       </c>
       <c r="C10">
-        <v>-0.6919681463915942</v>
+        <v>3.022571239962518</v>
       </c>
       <c r="D10">
-        <v>-2.562152251004516</v>
+        <v>8.975840267430939</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.5696621952884764</v>
+        <v>-1.348169257654104</v>
       </c>
       <c r="C11">
-        <v>-0.3325287573779826</v>
+        <v>0.4276794774273659</v>
       </c>
       <c r="D11">
-        <v>-0.2182047270371382</v>
+        <v>0.7795204177246327</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -584,16 +605,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.753249449431651</v>
+        <v>0.5002358089569242</v>
       </c>
       <c r="C12">
-        <v>-0.4616116528387975</v>
+        <v>2.439793180562858</v>
       </c>
       <c r="D12">
-        <v>-1.701677821348416</v>
+        <v>7.405594573387214</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -601,16 +625,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.6494290206490047</v>
+        <v>-0.4683697670963345</v>
       </c>
       <c r="C13">
-        <v>-0.4022902636484529</v>
+        <v>0.2634961620757627</v>
       </c>
       <c r="D13">
-        <v>-0.8207672596436859</v>
+        <v>0.610793258199275</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -618,16 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.166773192384718</v>
+        <v>-0.1780606056773527</v>
       </c>
       <c r="C14">
-        <v>-0.8186377112735955</v>
+        <v>1.735796049410313</v>
       </c>
       <c r="D14">
-        <v>-1.462212065657175</v>
+        <v>5.46085856751529</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -635,16 +665,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.631577262970179</v>
+        <v>-0.4741483764812984</v>
       </c>
       <c r="C15">
-        <v>-0.3302647742000545</v>
+        <v>0.208940222336177</v>
       </c>
       <c r="D15">
-        <v>-0.7664271396144603</v>
+        <v>0.3930103400738765</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.4190594956271572</v>
+        <v>-1.629940460062501</v>
       </c>
       <c r="C16">
-        <v>-0.4187980347845336</v>
+        <v>0.8511346179758437</v>
       </c>
       <c r="D16">
-        <v>-0.08678567424772882</v>
+        <v>2.313660349136903</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -669,16 +705,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-2.331219882170288</v>
+        <v>2.342807231939322</v>
       </c>
       <c r="C17">
-        <v>-1.551762497989107</v>
+        <v>4.045911743242578</v>
       </c>
       <c r="D17">
-        <v>-4.062321572016824</v>
+        <v>13.01991054015564</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -686,16 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.971207063455091</v>
+        <v>1.40198690998721</v>
       </c>
       <c r="C18">
-        <v>-2.14867721863812</v>
+        <v>3.439230682785171</v>
       </c>
       <c r="D18">
-        <v>-3.64927624065659</v>
+        <v>11.57626355666576</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -703,16 +745,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.7795986801051615</v>
+        <v>-0.220162815492138</v>
       </c>
       <c r="C19">
-        <v>-0.4151189347450962</v>
+        <v>0.5379172916041823</v>
       </c>
       <c r="D19">
-        <v>-1.046293862549502</v>
+        <v>1.461716569853892</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,16 +765,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.7290109666107047</v>
+        <v>-1.29701583369133</v>
       </c>
       <c r="C20">
-        <v>-1.084121166979058</v>
+        <v>1.614147801241958</v>
       </c>
       <c r="D20">
-        <v>-0.8294984115225035</v>
+        <v>5.109671151761972</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -737,16 +785,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-1.116552385437156</v>
+        <v>0.5071222111655598</v>
       </c>
       <c r="C21">
-        <v>-0.2375284796898309</v>
+        <v>1.197512860970684</v>
       </c>
       <c r="D21">
-        <v>-1.559853311179274</v>
+        <v>3.361137750441547</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.5601702322548768</v>
+        <v>-0.4972628140211539</v>
       </c>
       <c r="C22">
-        <v>-0.04216281640646079</v>
+        <v>-0.0092835366221658</v>
       </c>
       <c r="D22">
-        <v>-0.5490666594975576</v>
+        <v>-0.4781213324277171</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -771,16 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-2.786243561143874</v>
+        <v>2.354741894015858</v>
       </c>
       <c r="C23">
-        <v>-1.773019894532532</v>
+        <v>4.894740024921776</v>
       </c>
       <c r="D23">
-        <v>-4.398833230533628</v>
+        <v>15.37097615465023</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -788,16 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-1.198374127561213</v>
+        <v>0.9457500205243139</v>
       </c>
       <c r="C24">
-        <v>0.4570690726008665</v>
+        <v>1.200795722631667</v>
       </c>
       <c r="D24">
-        <v>-1.46750531669865</v>
+        <v>2.885155192496796</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -805,16 +865,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.8740648242036673</v>
+        <v>0.0164869173421307</v>
       </c>
       <c r="C25">
-        <v>-0.2838966269449427</v>
+        <v>0.7032265416534307</v>
       </c>
       <c r="D25">
-        <v>-1.163140225396867</v>
+        <v>1.877074045257712</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -822,16 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.8153021954628126</v>
+        <v>-0.2086055967222102</v>
       </c>
       <c r="C26">
-        <v>-0.5591699136418931</v>
+        <v>0.6470291710833538</v>
       </c>
       <c r="D26">
-        <v>-1.154974102607953</v>
+        <v>1.897282406104688</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -839,16 +905,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.8697517873487284</v>
+        <v>-0.8092050589183519</v>
       </c>
       <c r="C27">
-        <v>-0.3832690379172512</v>
+        <v>0.680665905457323</v>
       </c>
       <c r="D27">
-        <v>-0.6937318108845261</v>
+        <v>1.497476865751407</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -856,16 +925,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-2.083524965232422</v>
+        <v>1.644415252206443</v>
       </c>
       <c r="C28">
-        <v>-2.089480400286365</v>
+        <v>3.659095872574005</v>
       </c>
       <c r="D28">
-        <v>-3.820462723533181</v>
+        <v>12.20940395019497</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -873,16 +945,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.897570342174097</v>
+        <v>1.996363920790739</v>
       </c>
       <c r="C29">
-        <v>-0.3145005062696912</v>
+        <v>2.844039638141202</v>
       </c>
       <c r="D29">
-        <v>-2.913012928614171</v>
+        <v>8.466677620369246</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -890,16 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.8457983551160858</v>
+        <v>-0.4048050638617318</v>
       </c>
       <c r="C30">
-        <v>-1.194570647580835</v>
+        <v>0.8636114992112054</v>
       </c>
       <c r="D30">
-        <v>-1.418508579965168</v>
+        <v>3.006405357578657</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -907,16 +985,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.968530968302173</v>
+        <v>0.2531366501763994</v>
       </c>
       <c r="C31">
-        <v>-0.1526743191447892</v>
+        <v>0.8685357917026788</v>
       </c>
       <c r="D31">
-        <v>-1.279986588244232</v>
+        <v>2.292431520661531</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -924,16 +1005,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.467320146479363</v>
+        <v>0.3907725746382359</v>
       </c>
       <c r="C32">
-        <v>-0.2297571393250219</v>
+        <v>1.946927228092468</v>
       </c>
       <c r="D32">
-        <v>-1.657428507220558</v>
+        <v>5.324761450140373</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -941,16 +1025,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.9291709507120951</v>
+        <v>-0.6813625020068724</v>
       </c>
       <c r="C33">
-        <v>-0.4321406724015563</v>
+        <v>1.311661282433019</v>
       </c>
       <c r="D33">
-        <v>-0.8772495175131112</v>
+        <v>3.588301244106886</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -958,16 +1045,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-1.514498410075696</v>
+        <v>0.8420083035442145</v>
       </c>
       <c r="C34">
-        <v>-1.33073949251245</v>
+        <v>2.290273086592889</v>
       </c>
       <c r="D34">
-        <v>-2.600481714523475</v>
+        <v>7.478804833977139</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -975,16 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-2.964602633475923</v>
+        <v>3.059731422213461</v>
       </c>
       <c r="C35">
-        <v>-0.9832765007390999</v>
+        <v>5.701561725363434</v>
       </c>
       <c r="D35">
-        <v>-4.522474143211174</v>
+        <v>17.44605176693917</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -992,16 +1085,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.96937452891447</v>
+        <v>-0.1020614589457923</v>
       </c>
       <c r="C36">
-        <v>-1.315878339101918</v>
+        <v>2.007246823188444</v>
       </c>
       <c r="D36">
-        <v>-1.578398617962168</v>
+        <v>7.608633475508539</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1009,16 +1105,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.7029842936854813</v>
+        <v>-0.4510339389414428</v>
       </c>
       <c r="C37">
-        <v>-0.6183667319936481</v>
+        <v>0.4271639812945198</v>
       </c>
       <c r="D37">
-        <v>-0.983787619731363</v>
+        <v>1.26414201257547</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1026,16 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.6975633053774412</v>
+        <v>-1.610588042722656</v>
       </c>
       <c r="C38">
-        <v>-1.218236241047337</v>
+        <v>2.170885407085353</v>
       </c>
       <c r="D38">
-        <v>-2.872009860978287</v>
+        <v>3.587437656086614</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1043,16 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.368097449755032</v>
+        <v>0.1735018765050435</v>
       </c>
       <c r="C39">
-        <v>-1.598023403153737</v>
+        <v>2.729499102964474</v>
       </c>
       <c r="D39">
-        <v>-2.199606724270844</v>
+        <v>9.479354768631309</v>
+      </c>
+      <c r="E39">
+        <v>11</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1060,16 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-2.064259971874561</v>
+        <v>1.958736334163525</v>
       </c>
       <c r="C40">
-        <v>-0.323760821140289</v>
+        <v>3.633400425101097</v>
       </c>
       <c r="D40">
-        <v>-2.903620958791108</v>
+        <v>11.21345404402178</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1077,13 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.803808220493782</v>
+        <v>-1.145658362241182</v>
       </c>
       <c r="C41">
-        <v>-0.929110163040581</v>
+        <v>0.8526058432886279</v>
       </c>
       <c r="D41">
-        <v>-0.7873009457770384</v>
+        <v>2.450314073527855</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -1094,16 +1205,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.236307333484556</v>
+        <v>0.3398157909508577</v>
       </c>
       <c r="C42">
-        <v>-1.233056660870765</v>
+        <v>1.686874887796464</v>
       </c>
       <c r="D42">
-        <v>-2.095088388682617</v>
+        <v>5.559175292542507</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1111,16 +1225,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.726907222328934</v>
+        <v>-0.1813604026669099</v>
       </c>
       <c r="C43">
-        <v>-3.076213171100852</v>
+        <v>3.28428136762545</v>
       </c>
       <c r="D43">
-        <v>-3.085555206468939</v>
+        <v>11.51901080022624</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1128,16 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.537557523458899</v>
+        <v>1.055543598838628</v>
       </c>
       <c r="C44">
-        <v>-0.9114152269187034</v>
+        <v>2.237358577683795</v>
       </c>
       <c r="D44">
-        <v>-2.499967597253938</v>
+        <v>7.023030636879366</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1145,16 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.418953002416915</v>
+        <v>0.08381917700987307</v>
       </c>
       <c r="C45">
-        <v>-0.8492025396270009</v>
+        <v>2.115599611451555</v>
       </c>
       <c r="D45">
-        <v>-1.806253720247668</v>
+        <v>6.269364795550142</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1162,16 +1285,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.756539566721958</v>
+        <v>-0.4336981107865512</v>
       </c>
       <c r="C46">
-        <v>-0.8344432003388433</v>
+        <v>0.5908318005132769</v>
       </c>
       <c r="D46">
-        <v>-1.14680797981904</v>
+        <v>1.917490766951665</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1179,16 +1305,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.371099973010043</v>
+        <v>-0.7525864255692458</v>
       </c>
       <c r="C47">
-        <v>-2.818412412911691</v>
+        <v>2.406779642643702</v>
       </c>
       <c r="D47">
-        <v>-2.47727403824641</v>
+        <v>8.6102845471819</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1196,16 +1325,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.4830803038493676</v>
+        <v>-1.320845767907958</v>
       </c>
       <c r="C48">
-        <v>0.00760115466994879</v>
+        <v>1.083894456881862</v>
       </c>
       <c r="D48">
-        <v>-0.08054790738968226</v>
+        <v>2.778617067098363</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1213,16 +1345,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.6672807783278302</v>
+        <v>-0.4625911577113706</v>
       </c>
       <c r="C49">
-        <v>-0.4743157530968513</v>
+        <v>0.3180521018153484</v>
       </c>
       <c r="D49">
-        <v>-0.8751073796729116</v>
+        <v>0.8285761763246733</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1230,16 +1365,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1.452727660704549</v>
+        <v>0.9129285686033948</v>
       </c>
       <c r="C50">
-        <v>0.9934372790465039</v>
+        <v>2.088542057213042</v>
       </c>
       <c r="D50">
-        <v>-1.296043181169468</v>
+        <v>4.981295659827925</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1247,16 +1385,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.003610514197246</v>
+        <v>-0.330371336327465</v>
       </c>
       <c r="C51">
-        <v>0.1118048722496423</v>
+        <v>1.138649609526791</v>
       </c>
       <c r="D51">
-        <v>-0.7961804066676772</v>
+        <v>2.628815693149047</v>
+      </c>
+      <c r="E51">
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1264,16 +1405,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.214947435738045</v>
+        <v>-0.01758050390949906</v>
       </c>
       <c r="C52">
-        <v>-0.1232609037266229</v>
+        <v>1.573255419280467</v>
       </c>
       <c r="D52">
-        <v>-1.225352447814176</v>
+        <v>4.111480643840334</v>
+      </c>
+      <c r="E52">
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1281,16 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.6379818256027671</v>
+        <v>-1.155560142140519</v>
       </c>
       <c r="C53">
-        <v>-0.2473012104441798</v>
+        <v>0.943936365780544</v>
       </c>
       <c r="D53">
-        <v>-0.3586673198544344</v>
+        <v>2.399875158127006</v>
+      </c>
+      <c r="E53">
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.4742326499465102</v>
+        <v>-1.411689846925499</v>
       </c>
       <c r="C54">
-        <v>-0.09089545556877292</v>
+        <v>0.5601354230042221</v>
       </c>
       <c r="D54">
-        <v>-0.02758548290193619</v>
+        <v>1.111723924426244</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -1315,16 +1465,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-2.056602010654695</v>
+        <v>1.376572953069708</v>
       </c>
       <c r="C55">
-        <v>-0.7062734340076455</v>
+        <v>3.318946698269011</v>
       </c>
       <c r="D55">
-        <v>-2.830241488912696</v>
+        <v>9.839052969335418</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1332,16 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-1.03911285434209</v>
+        <v>-0.8640608450800533</v>
       </c>
       <c r="C56">
-        <v>-1.529136277675848</v>
+        <v>2.497559910492043</v>
       </c>
       <c r="D56">
-        <v>-1.522217175191709</v>
+        <v>8.163091600297994</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1349,16 +1505,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C57">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D57">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E57">
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1366,16 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.802657793488365</v>
+        <v>-0.006627520197724834</v>
       </c>
       <c r="C58">
-        <v>0.004205330848650962</v>
+        <v>0.4850027826950878</v>
       </c>
       <c r="D58">
-        <v>-0.9457797452799644</v>
+        <v>1.005942372756118</v>
+      </c>
+      <c r="E58">
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1383,16 +1545,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.6235374500462443</v>
+        <v>-0.6855596963574307</v>
       </c>
       <c r="C59">
-        <v>-0.03945635199722421</v>
+        <v>0.7763593623395006</v>
       </c>
       <c r="D59">
-        <v>-0.3995065670796507</v>
+        <v>2.343474906018144</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1400,16 +1565,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1.242713885388233</v>
+        <v>-0.2439189873045506</v>
       </c>
       <c r="C60">
-        <v>-0.7742666736508909</v>
+        <v>1.499340591756052</v>
       </c>
       <c r="D60">
-        <v>-1.450860682971753</v>
+        <v>4.269955135938805</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1417,16 +1585,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.6672807783278302</v>
+        <v>-0.4625911577113706</v>
       </c>
       <c r="C61">
-        <v>-0.4743157530968513</v>
+        <v>0.3180521018153484</v>
       </c>
       <c r="D61">
-        <v>-0.8751073796729116</v>
+        <v>0.8285761763246733</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1434,16 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.9432436988942994</v>
+        <v>-0.4968091971305196</v>
       </c>
       <c r="C62">
-        <v>-0.4030548212076775</v>
+        <v>1.518482696013069</v>
       </c>
       <c r="D62">
-        <v>-0.9657095948183216</v>
+        <v>4.490889625629091</v>
+      </c>
+      <c r="E62">
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1451,16 +1625,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1.600858813101857</v>
+        <v>0.1721713173659924</v>
       </c>
       <c r="C63">
-        <v>-1.502170895842915</v>
+        <v>2.603923731420518</v>
       </c>
       <c r="D63">
-        <v>-2.326564860628396</v>
+        <v>8.212790200725246</v>
+      </c>
+      <c r="E63">
+        <v>12</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1468,16 +1645,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.9362115451871273</v>
+        <v>-1.09448782178794</v>
       </c>
       <c r="C64">
-        <v>-1.596458394614497</v>
+        <v>1.361941305751502</v>
       </c>
       <c r="D64">
-        <v>-1.268163610910017</v>
+        <v>4.639523558795613</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1485,16 +1665,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C65">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D65">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E65">
+        <v>12</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1502,16 +1685,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.631577262970179</v>
+        <v>-0.4741483764812984</v>
       </c>
       <c r="C66">
-        <v>-0.3302647742000545</v>
+        <v>0.208940222336177</v>
       </c>
       <c r="D66">
-        <v>-0.7664271396144603</v>
+        <v>0.3930103400738765</v>
+      </c>
+      <c r="E66">
+        <v>12</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.172121617842652</v>
+        <v>-2.516994416276359</v>
       </c>
       <c r="C67">
-        <v>0.001487158030458305</v>
+        <v>0.9893197217775405</v>
       </c>
       <c r="D67">
-        <v>0.8613000425648679</v>
+        <v>2.802050241666421</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -1536,16 +1725,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-1.387552353005529</v>
+        <v>-0.4178405166950472</v>
       </c>
       <c r="C68">
-        <v>-1.911476358138458</v>
+        <v>2.099154166904658</v>
       </c>
       <c r="D68">
-        <v>-2.079150970474699</v>
+        <v>6.911868943267303</v>
+      </c>
+      <c r="E68">
+        <v>12</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1553,16 +1745,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.7617469224263359</v>
+        <v>-0.2259414248771019</v>
       </c>
       <c r="C69">
-        <v>-0.3430934452966978</v>
+        <v>0.4833613518645967</v>
       </c>
       <c r="D69">
-        <v>-0.9919537425202766</v>
+        <v>1.243933651728493</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1570,16 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-1.426450823529789</v>
+        <v>0.4214139030646287</v>
       </c>
       <c r="C70">
-        <v>-1.049555423889263</v>
+        <v>2.780387221225217</v>
       </c>
       <c r="D70">
-        <v>-2.467490224898461</v>
+        <v>8.414632511339029</v>
+      </c>
+      <c r="E70">
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1587,16 +1785,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-1.039937999017475</v>
+        <v>0.276251087716255</v>
       </c>
       <c r="C71">
-        <v>-0.4407762769383828</v>
+        <v>1.086759550661022</v>
       </c>
       <c r="D71">
-        <v>-1.497347068361135</v>
+        <v>3.163563193163125</v>
+      </c>
+      <c r="E71">
+        <v>12</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1604,16 +1805,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.8562130665248416</v>
+        <v>0.01070830795716682</v>
       </c>
       <c r="C72">
-        <v>-0.2118711374965443</v>
+        <v>0.6486706019138448</v>
       </c>
       <c r="D72">
-        <v>-1.108800105367641</v>
+        <v>1.659291127132313</v>
+      </c>
+      <c r="E72">
+        <v>12</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.7684583516798722</v>
+        <v>-0.9832323769463345</v>
       </c>
       <c r="C73">
-        <v>-0.3088405699689313</v>
+        <v>0.3457942932772404</v>
       </c>
       <c r="D73">
-        <v>-0.4826152202084163</v>
+        <v>0.3922047484737357</v>
+      </c>
+      <c r="E73">
+        <v>12</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.1464274320130484</v>
+        <v>-1.848070070085446</v>
       </c>
       <c r="C74">
-        <v>0.2706267426101496</v>
+        <v>0.6650967394833014</v>
       </c>
       <c r="D74">
-        <v>0.5329994884512245</v>
+        <v>1.394015178332608</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-1.104126117087472</v>
+        <v>-1.074667781751119</v>
       </c>
       <c r="C75">
-        <v>-1.241515349362338</v>
+        <v>1.168869440089689</v>
       </c>
       <c r="D75">
-        <v>-0.85716012319788</v>
+        <v>4.014587541670211</v>
+      </c>
+      <c r="E75">
+        <v>12</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -1672,16 +1885,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.7974504377839871</v>
+        <v>-0.2143842061071741</v>
       </c>
       <c r="C76">
-        <v>-0.4871444241934946</v>
+        <v>0.5924732313437679</v>
       </c>
       <c r="D76">
-        <v>-1.100633982578728</v>
+        <v>1.67949948797929</v>
+      </c>
+      <c r="E76">
+        <v>12</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1689,16 +1905,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C77">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D77">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1706,16 +1925,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.6672807783278302</v>
+        <v>-0.4625911577113706</v>
       </c>
       <c r="C78">
-        <v>-0.4743157530968513</v>
+        <v>0.3180521018153484</v>
       </c>
       <c r="D78">
-        <v>-0.8751073796729116</v>
+        <v>0.8285761763246733</v>
+      </c>
+      <c r="E78">
+        <v>12</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.595873747612528</v>
+        <v>-0.4857055952512261</v>
       </c>
       <c r="C79">
-        <v>-0.1862137953032576</v>
+        <v>0.09982834285700559</v>
       </c>
       <c r="D79">
-        <v>-0.657746899556009</v>
+        <v>-0.04255549617692034</v>
+      </c>
+      <c r="E79">
+        <v>12</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -1740,16 +1965,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-1.787662652669619</v>
+        <v>0.3341024784965014</v>
       </c>
       <c r="C80">
-        <v>-2.141734008802177</v>
+        <v>3.128469121268182</v>
       </c>
       <c r="D80">
-        <v>-2.869833175464555</v>
+        <v>10.57882398472306</v>
+      </c>
+      <c r="E80">
+        <v>12</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.6724881340322081</v>
+        <v>-0.2548344718019213</v>
       </c>
       <c r="C81">
-        <v>0.01703400194529429</v>
+        <v>0.2105816531666682</v>
       </c>
       <c r="D81">
-        <v>-0.7202531423741482</v>
+        <v>0.1550190611015012</v>
+      </c>
+      <c r="E81">
+        <v>12</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.595873747612528</v>
+        <v>-0.4857055952512261</v>
       </c>
       <c r="C82">
-        <v>-0.1862137953032576</v>
+        <v>0.09982834285700559</v>
       </c>
       <c r="D82">
-        <v>-0.657746899556009</v>
+        <v>-0.04255549617692034</v>
+      </c>
+      <c r="E82">
+        <v>12</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -1791,16 +2025,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-1.093493272053952</v>
+        <v>0.2935869158711466</v>
       </c>
       <c r="C83">
-        <v>-0.6568527452835781</v>
+        <v>1.250427369879779</v>
       </c>
       <c r="D83">
-        <v>-1.660367428448812</v>
+        <v>3.81691194753932</v>
+      </c>
+      <c r="E83">
+        <v>12</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1808,16 +2045,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C84">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D84">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1825,16 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-1.057789756696301</v>
+        <v>0.2820296971012188</v>
       </c>
       <c r="C85">
-        <v>-0.5128017663867812</v>
+        <v>1.141315490400607</v>
       </c>
       <c r="D85">
-        <v>-1.55168718839036</v>
+        <v>3.381346111288523</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1842,16 +2085,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.335725906700122</v>
+        <v>0.06198396898235381</v>
       </c>
       <c r="C86">
-        <v>-1.363301038828934</v>
+        <v>2.363224439629166</v>
       </c>
       <c r="D86">
-        <v>-2.273375052056513</v>
+        <v>7.370781336666922</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1859,16 +2105,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.8510057108204637</v>
+        <v>-0.1970483779522825</v>
       </c>
       <c r="C87">
-        <v>-0.7032208925386899</v>
+        <v>0.7561410505625252</v>
       </c>
       <c r="D87">
-        <v>-1.263654342666405</v>
+        <v>2.332848242355485</v>
+      </c>
+      <c r="E87">
+        <v>12</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1876,16 +2125,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-1.011671529929894</v>
+        <v>-0.1450408934876075</v>
       </c>
       <c r="C88">
-        <v>-1.351450297574275</v>
+        <v>1.247144508218796</v>
       </c>
       <c r="D88">
-        <v>-1.752715422929436</v>
+        <v>4.292894505484071</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1893,16 +2145,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.9461669878266896</v>
+        <v>-1.025903675587751</v>
       </c>
       <c r="C89">
-        <v>-1.301084988233393</v>
+        <v>1.118687197768287</v>
       </c>
       <c r="D89">
-        <v>-1.137126696217408</v>
+        <v>3.497676519271146</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1910,16 +2165,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.631577262970179</v>
+        <v>-0.4741483764812984</v>
       </c>
       <c r="C90">
-        <v>-0.3302647742000545</v>
+        <v>0.208940222336177</v>
       </c>
       <c r="D90">
-        <v>-0.7664271396144603</v>
+        <v>0.3930103400738765</v>
+      </c>
+      <c r="E90">
+        <v>12</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1927,16 +2185,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.631577262970179</v>
+        <v>-0.4741483764812984</v>
       </c>
       <c r="C91">
-        <v>-0.3302647742000545</v>
+        <v>0.208940222336177</v>
       </c>
       <c r="D91">
-        <v>-0.7664271396144603</v>
+        <v>0.3930103400738765</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1944,16 +2205,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.298187873203261</v>
+        <v>0.1743923503126618</v>
       </c>
       <c r="C92">
-        <v>-0.005748051439663698</v>
+        <v>1.449139248752372</v>
       </c>
       <c r="D92">
-        <v>-1.291672544414824</v>
+        <v>3.582838003050048</v>
+      </c>
+      <c r="E92">
+        <v>13</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1961,16 +2225,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-3.125324134324236</v>
+        <v>3.443734065289809</v>
       </c>
       <c r="C93">
-        <v>-1.149186558060085</v>
+        <v>5.697581807874479</v>
       </c>
       <c r="D93">
-        <v>-4.859499992985026</v>
+        <v>17.7391744107633</v>
+      </c>
+      <c r="E93">
+        <v>13</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -1978,16 +2245,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-1.478794894718044</v>
+        <v>0.8304510847742868</v>
       </c>
       <c r="C94">
-        <v>-1.186688513615654</v>
+        <v>2.181161207113718</v>
       </c>
       <c r="D94">
-        <v>-2.491801474465024</v>
+        <v>7.043238997726343</v>
+      </c>
+      <c r="E94">
+        <v>13</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1995,16 +2265,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-1.514498410075696</v>
+        <v>0.8420083035442145</v>
       </c>
       <c r="C95">
-        <v>-1.33073949251245</v>
+        <v>2.290273086592889</v>
       </c>
       <c r="D95">
-        <v>-2.600481714523475</v>
+        <v>7.478804833977139</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2012,16 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.9863827259809985</v>
+        <v>0.2589152595613633</v>
       </c>
       <c r="C96">
-        <v>-0.2246998085931876</v>
+        <v>0.9230917314422646</v>
       </c>
       <c r="D96">
-        <v>-1.334326708273458</v>
+        <v>2.51021443878693</v>
+      </c>
+      <c r="E96">
+        <v>13</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.6724881340322081</v>
+        <v>-0.2548344718019213</v>
       </c>
       <c r="C97">
-        <v>0.01703400194529429</v>
+        <v>0.2105816531666682</v>
       </c>
       <c r="D97">
-        <v>-0.7202531423741482</v>
+        <v>0.1550190611015012</v>
+      </c>
+      <c r="E97">
+        <v>13</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2046,16 +2325,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-1.841037403998934</v>
+        <v>1.153779958383014</v>
       </c>
       <c r="C98">
-        <v>-2.135848547541476</v>
+        <v>3.164809553256752</v>
       </c>
       <c r="D98">
-        <v>-3.423749637750774</v>
+        <v>10.72534024501114</v>
+      </c>
+      <c r="E98">
+        <v>13</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2063,16 +2345,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.6903398917110337</v>
+        <v>-0.2490558624169574</v>
       </c>
       <c r="C99">
-        <v>-0.05499148750310412</v>
+        <v>0.2651375929062539</v>
       </c>
       <c r="D99">
-        <v>-0.7745932624033739</v>
+        <v>0.3728019792268996</v>
+      </c>
+      <c r="E99">
+        <v>13</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2080,16 +2365,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.9276200972401439</v>
+        <v>0.03382274549702236</v>
       </c>
       <c r="C100">
-        <v>-0.4999730952901379</v>
+        <v>0.8668943608721877</v>
       </c>
       <c r="D100">
-        <v>-1.326160585484544</v>
+        <v>2.530422799633907</v>
+      </c>
+      <c r="E100">
+        <v>13</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2097,16 +2385,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.9402644992145915</v>
+        <v>-0.1681553310274631</v>
       </c>
       <c r="C101">
-        <v>-1.063348339780682</v>
+        <v>1.028920749260454</v>
       </c>
       <c r="D101">
-        <v>-1.535354942812533</v>
+        <v>3.421762832982477</v>
+      </c>
+      <c r="E101">
+        <v>13</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2114,16 +2405,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.802657793488365</v>
+        <v>-0.006627520197724834</v>
       </c>
       <c r="C102">
-        <v>0.004205330848650962</v>
+        <v>0.4850027826950878</v>
       </c>
       <c r="D102">
-        <v>-0.9457797452799644</v>
+        <v>1.005942372756118</v>
+      </c>
+      <c r="E102">
+        <v>13</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2131,16 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.7922430820796091</v>
+        <v>-0.4221408920166234</v>
       </c>
       <c r="C103">
-        <v>-0.9784941792356402</v>
+        <v>0.6999436799924483</v>
       </c>
       <c r="D103">
-        <v>-1.255488219877491</v>
+        <v>2.353056603202462</v>
+      </c>
+      <c r="E103">
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2148,16 +2445,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-1.871255086511703</v>
+        <v>0.6359873083009193</v>
       </c>
       <c r="C104">
-        <v>-1.314297769257849</v>
+        <v>2.966854885015672</v>
       </c>
       <c r="D104">
-        <v>-2.550135447349712</v>
+        <v>9.321492938589552</v>
+      </c>
+      <c r="E104">
+        <v>13</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2165,16 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-1.181924861189598</v>
+        <v>-0.3465380843024959</v>
       </c>
       <c r="C105">
-        <v>-0.8643606149114612</v>
+        <v>2.202307603438834</v>
       </c>
       <c r="D105">
-        <v>-1.485593118864537</v>
+        <v>6.686598009117303</v>
+      </c>
+      <c r="E105">
+        <v>13</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2182,16 +2485,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-1.093493272053952</v>
+        <v>0.2935869158711466</v>
       </c>
       <c r="C106">
-        <v>-0.6568527452835781</v>
+        <v>1.250427369879779</v>
       </c>
       <c r="D106">
-        <v>-1.660367428448812</v>
+        <v>3.81691194753932</v>
+      </c>
+      <c r="E106">
+        <v>13</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2199,16 +2505,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.8510057108204637</v>
+        <v>-0.1970483779522825</v>
       </c>
       <c r="C107">
-        <v>-0.7032208925386899</v>
+        <v>0.7561410505625252</v>
       </c>
       <c r="D107">
-        <v>-1.263654342666405</v>
+        <v>2.332848242355485</v>
+      </c>
+      <c r="E107">
+        <v>13</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2216,16 +2525,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.7617469224263359</v>
+        <v>-0.2259414248771019</v>
       </c>
       <c r="C108">
-        <v>-0.3430934452966978</v>
+        <v>0.4833613518645967</v>
       </c>
       <c r="D108">
-        <v>-0.9919537425202766</v>
+        <v>1.243933651728493</v>
+      </c>
+      <c r="E108">
+        <v>13</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2233,16 +2545,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-1.057789756696301</v>
+        <v>0.2820296971012188</v>
       </c>
       <c r="C109">
-        <v>-0.5128017663867812</v>
+        <v>1.141315490400607</v>
       </c>
       <c r="D109">
-        <v>-1.55168718839036</v>
+        <v>3.381346111288523</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.595873747612528</v>
+        <v>-0.4857055952512261</v>
       </c>
       <c r="C110">
-        <v>-0.1862137953032576</v>
+        <v>0.09982834285700559</v>
       </c>
       <c r="D110">
-        <v>-0.657746899556009</v>
+        <v>-0.04255549617692034</v>
+      </c>
+      <c r="E110">
+        <v>13</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -2267,16 +2585,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.6494290206490047</v>
+        <v>-0.4683697670963345</v>
       </c>
       <c r="C111">
-        <v>-0.4022902636484529</v>
+        <v>0.2634961620757627</v>
       </c>
       <c r="D111">
-        <v>-0.8207672596436859</v>
+        <v>0.610793258199275</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2284,16 +2605,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-1.353832590966266</v>
+        <v>0.7900008190795396</v>
       </c>
       <c r="C112">
-        <v>-0.6825100874768649</v>
+        <v>1.799269628936618</v>
       </c>
       <c r="D112">
-        <v>-2.111420634260444</v>
+        <v>5.518758570848554</v>
+      </c>
+      <c r="E112">
+        <v>13</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2301,16 +2625,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.016878885634272</v>
+        <v>0.06271579242184178</v>
       </c>
       <c r="C113">
-        <v>-0.86010054253213</v>
+        <v>1.139674059570116</v>
       </c>
       <c r="D113">
-        <v>-1.597861185630673</v>
+        <v>3.619337390260899</v>
+      </c>
+      <c r="E113">
+        <v>13</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2318,16 +2645,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-1.129196787411603</v>
+        <v>0.3051441346410744</v>
       </c>
       <c r="C114">
-        <v>-0.8009037241803749</v>
+        <v>1.35953924935895</v>
       </c>
       <c r="D114">
-        <v>-1.769047668507263</v>
+        <v>4.252477783790117</v>
+      </c>
+      <c r="E114">
+        <v>13</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2335,16 +2665,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-1.1061376740284</v>
+        <v>0.0916088393466612</v>
       </c>
       <c r="C115">
-        <v>-1.220227989774122</v>
+        <v>1.412453758268045</v>
       </c>
       <c r="D115">
-        <v>-1.869561785776801</v>
+        <v>4.708251980887891</v>
+      </c>
+      <c r="E115">
+        <v>13</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2352,16 +2685,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.6494290206490047</v>
+        <v>-0.4683697670963345</v>
       </c>
       <c r="C116">
-        <v>-0.4022902636484529</v>
+        <v>0.2634961620757627</v>
       </c>
       <c r="D116">
-        <v>-0.8207672596436859</v>
+        <v>0.610793258199275</v>
+      </c>
+      <c r="E116">
+        <v>13</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2369,16 +2705,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.200603818126905</v>
+        <v>0.3282585721809299</v>
       </c>
       <c r="C117">
-        <v>-1.089005681973968</v>
+        <v>1.577763008317293</v>
       </c>
       <c r="D117">
-        <v>-1.986408148624166</v>
+        <v>5.12360945629171</v>
+      </c>
+      <c r="E117">
+        <v>13</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2386,16 +2725,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.8383613088460161</v>
+        <v>0.004929698572202934</v>
       </c>
       <c r="C118">
-        <v>-0.1398456480481459</v>
+        <v>0.5941146621742592</v>
       </c>
       <c r="D118">
-        <v>-1.054459985338416</v>
+        <v>1.441508209006915</v>
+      </c>
+      <c r="E118">
+        <v>13</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2403,16 +2745,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.6534555305511597</v>
+        <v>-1.103614332350122</v>
       </c>
       <c r="C119">
-        <v>-0.2345395451670509</v>
+        <v>1.232825918820426</v>
       </c>
       <c r="D119">
-        <v>-0.41544359812469</v>
+        <v>3.340551102730417</v>
+      </c>
+      <c r="E119">
+        <v>13</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.6741426243292038</v>
+        <v>-1.119851747540498</v>
       </c>
       <c r="C120">
-        <v>-0.2197548562713516</v>
+        <v>0.300883969211963</v>
       </c>
       <c r="D120">
-        <v>-0.3157748837554835</v>
+        <v>0.2342569189808661</v>
+      </c>
+      <c r="E120">
+        <v>13</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -2437,13 +2785,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.5780219899337024</v>
+        <v>-0.49148420463619</v>
       </c>
       <c r="C121">
-        <v>-0.1141883058548592</v>
+        <v>0.0452724031174199</v>
       </c>
       <c r="D121">
-        <v>-0.6034067795267832</v>
+        <v>-0.2603384143023187</v>
+      </c>
+      <c r="E121">
+        <v>13</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2454,16 +2805,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.9275510148461226</v>
+        <v>-0.4109834012911371</v>
       </c>
       <c r="C122">
-        <v>0.2648598583890627</v>
+        <v>1.034628471653504</v>
       </c>
       <c r="D122">
-        <v>-0.628125052385603</v>
+        <v>2.224829487009862</v>
+      </c>
+      <c r="E122">
+        <v>13</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2471,16 +2825,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.9454718549189695</v>
+        <v>0.03960135488198624</v>
       </c>
       <c r="C123">
-        <v>-0.5719985847385364</v>
+        <v>0.9214503006117734</v>
       </c>
       <c r="D123">
-        <v>-1.38050070551377</v>
+        <v>2.748205717759305</v>
+      </c>
+      <c r="E123">
+        <v>13</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2488,16 +2845,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-1.535368485761512</v>
+        <v>0.2334860881672896</v>
       </c>
       <c r="C124">
-        <v>-1.011261533009045</v>
+        <v>2.214530007718956</v>
       </c>
       <c r="D124">
-        <v>-2.033684188753366</v>
+        <v>6.641771371577714</v>
+      </c>
+      <c r="E124">
+        <v>13</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.2160162524806484</v>
+        <v>-2.716645671216688</v>
       </c>
       <c r="C125">
-        <v>-0.277103394492721</v>
+        <v>0.9312468148263486</v>
       </c>
       <c r="D125">
-        <v>0.8475911232713939</v>
+        <v>2.810624001945964</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -2522,16 +2885,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-1.09870062775833</v>
+        <v>0.5013436017805959</v>
       </c>
       <c r="C126">
-        <v>-0.1655029902414325</v>
+        <v>1.142956921231099</v>
       </c>
       <c r="D126">
-        <v>-1.505513191150048</v>
+        <v>3.143354832316148</v>
+      </c>
+      <c r="E126">
+        <v>13</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2539,16 +2905,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.9350571435102136</v>
+        <v>-0.3759120169369123</v>
       </c>
       <c r="C127">
-        <v>-1.554698094822827</v>
+        <v>1.136391197909134</v>
       </c>
       <c r="D127">
-        <v>-1.690209180111297</v>
+        <v>4.095319948205649</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2556,16 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.8792721799080452</v>
+        <v>0.22424360325158</v>
       </c>
       <c r="C128">
-        <v>0.2074531280972028</v>
+        <v>0.5957560930047503</v>
       </c>
       <c r="D128">
-        <v>-1.008285988098104</v>
+        <v>1.203516930034539</v>
+      </c>
+      <c r="E128">
+        <v>13</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2573,16 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.9402644992145915</v>
+        <v>-0.1681553310274631</v>
       </c>
       <c r="C129">
-        <v>-1.063348339780682</v>
+        <v>1.028920749260454</v>
       </c>
       <c r="D129">
-        <v>-1.535354942812533</v>
+        <v>3.421762832982477</v>
+      </c>
+      <c r="E129">
+        <v>13</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2590,16 +2965,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-1.434835221540212</v>
+        <v>-0.1876232152482368</v>
       </c>
       <c r="C130">
-        <v>-1.565599267347208</v>
+        <v>2.099991796428956</v>
       </c>
       <c r="D130">
-        <v>-2.042351991269696</v>
+        <v>6.668891406908883</v>
+      </c>
+      <c r="E130">
+        <v>13</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2607,16 +2985,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-1.004234483659824</v>
+        <v>0.2646938689463272</v>
       </c>
       <c r="C131">
-        <v>-0.296725298041586</v>
+        <v>0.9776476711818503</v>
       </c>
       <c r="D131">
-        <v>-1.388666828302684</v>
+        <v>2.727997356912328</v>
+      </c>
+      <c r="E131">
+        <v>13</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2624,16 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.7795986801051615</v>
+        <v>-0.220162815492138</v>
       </c>
       <c r="C132">
-        <v>-0.4151189347450962</v>
+        <v>0.5379172916041823</v>
       </c>
       <c r="D132">
-        <v>-1.046293862549502</v>
+        <v>1.461716569853892</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2641,16 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-1.33598083328744</v>
+        <v>0.7842222096945757</v>
       </c>
       <c r="C133">
-        <v>-0.6104845980284664</v>
+        <v>1.744713689197032</v>
       </c>
       <c r="D133">
-        <v>-2.057080514231219</v>
+        <v>5.300975652723156</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2658,16 +3045,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.039937999017475</v>
+        <v>0.276251087716255</v>
       </c>
       <c r="C134">
-        <v>-0.4407762769383828</v>
+        <v>1.086759550661022</v>
       </c>
       <c r="D134">
-        <v>-1.497347068361135</v>
+        <v>3.163563193163125</v>
+      </c>
+      <c r="E134">
+        <v>13</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2675,16 +3065,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C135">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D135">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E135">
+        <v>13</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2692,16 +3085,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C136">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D136">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E136">
+        <v>13</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2709,16 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-1.07810494531356</v>
+        <v>-0.4767515767613388</v>
       </c>
       <c r="C137">
-        <v>-0.5496265902713476</v>
+        <v>1.058840239090298</v>
       </c>
       <c r="D137">
-        <v>-1.090438774084187</v>
+        <v>2.75072429774986</v>
+      </c>
+      <c r="E137">
+        <v>13</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2726,16 +3125,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.8929593282086805</v>
+        <v>-0.5933163887876458</v>
       </c>
       <c r="C138">
-        <v>-0.1194631742897708</v>
+        <v>1.670680762016978</v>
       </c>
       <c r="D138">
-        <v>-0.7796916059602593</v>
+        <v>4.595197289221416</v>
+      </c>
+      <c r="E138">
+        <v>13</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2743,16 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-1.266921038686106</v>
+        <v>-0.9998880299329886</v>
       </c>
       <c r="C139">
-        <v>-2.846178210165329</v>
+        <v>2.200258764070318</v>
       </c>
       <c r="D139">
-        <v>-2.243075788961855</v>
+        <v>8.236471921369729</v>
+      </c>
+      <c r="E139">
+        <v>13</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2760,16 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-1.308269099886567</v>
+        <v>-0.1486247082932578</v>
       </c>
       <c r="C140">
-        <v>-1.152727775448005</v>
+        <v>2.05894164193951</v>
       </c>
       <c r="D140">
-        <v>-1.770483436168605</v>
+        <v>6.52940746782998</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2777,16 +3185,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-1.080848870079504</v>
+        <v>0.495564992395632</v>
       </c>
       <c r="C141">
-        <v>-0.09347750079303412</v>
+        <v>1.088400981491513</v>
       </c>
       <c r="D141">
-        <v>-1.451173071120823</v>
+        <v>2.92557191419075</v>
+      </c>
+      <c r="E141">
+        <v>14</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2794,16 +3205,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C142">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D142">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E142">
+        <v>14</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.7210698570490566</v>
+        <v>-1.161294637562275</v>
       </c>
       <c r="C143">
-        <v>-0.725922803118954</v>
+        <v>1.621951708753257</v>
       </c>
       <c r="D143">
-        <v>-0.7114492760114892</v>
+        <v>4.909907846082602</v>
+      </c>
+      <c r="E143">
+        <v>14</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -2828,16 +3245,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.5399566324902139</v>
+        <v>-0.2596847749025375</v>
       </c>
       <c r="C144">
-        <v>-0.2892816901309475</v>
+        <v>1.920796156301479</v>
       </c>
       <c r="D144">
-        <v>-1.722901823688956</v>
+        <v>4.909833036217615</v>
+      </c>
+      <c r="E144">
+        <v>14</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2845,16 +3265,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-1.050745020567188</v>
+        <v>-0.6714782828186059</v>
       </c>
       <c r="C145">
-        <v>-1.003605636808415</v>
+        <v>1.750788138037012</v>
       </c>
       <c r="D145">
-        <v>-1.28072041762922</v>
+        <v>5.347185447063554</v>
+      </c>
+      <c r="E145">
+        <v>14</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2862,16 +3285,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.8740648242036673</v>
+        <v>0.0164869173421307</v>
       </c>
       <c r="C146">
-        <v>-0.2838966269449427</v>
+        <v>0.7032265416534307</v>
       </c>
       <c r="D146">
-        <v>-1.163140225396867</v>
+        <v>1.877074045257712</v>
+      </c>
+      <c r="E146">
+        <v>14</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2879,16 +3305,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.7617469224263359</v>
+        <v>-0.2259414248771019</v>
       </c>
       <c r="C147">
-        <v>-0.3430934452966978</v>
+        <v>0.4833613518645967</v>
       </c>
       <c r="D147">
-        <v>-0.9919537425202766</v>
+        <v>1.243933651728493</v>
+      </c>
+      <c r="E147">
+        <v>14</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2896,16 +3325,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C148">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D148">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E148">
+        <v>14</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.5702150930859442</v>
+        <v>-1.295587186572283</v>
       </c>
       <c r="C149">
-        <v>-0.3520523974540104</v>
+        <v>1.356942089348521</v>
       </c>
       <c r="D149">
-        <v>-0.3491235015240413</v>
+        <v>3.869193743520702</v>
+      </c>
+      <c r="E149">
+        <v>14</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -2930,16 +3365,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-1.267543351385247</v>
+        <v>-0.2007324304857678</v>
       </c>
       <c r="C150">
-        <v>-0.8316349173500294</v>
+        <v>1.843857819610443</v>
       </c>
       <c r="D150">
-        <v>-1.549477057224156</v>
+        <v>5.435062341849005</v>
+      </c>
+      <c r="E150">
+        <v>14</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2947,16 +3385,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.8919165818824928</v>
+        <v>0.02226552672709459</v>
       </c>
       <c r="C151">
-        <v>-0.3559221163933411</v>
+        <v>0.7577824813930163</v>
       </c>
       <c r="D151">
-        <v>-1.217480345426093</v>
+        <v>2.09485696338311</v>
+      </c>
+      <c r="E151">
+        <v>14</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2964,16 +3405,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.9402644992145915</v>
+        <v>-0.1681553310274631</v>
       </c>
       <c r="C152">
-        <v>-1.063348339780682</v>
+        <v>1.028920749260454</v>
       </c>
       <c r="D152">
-        <v>-1.535354942812533</v>
+        <v>3.421762832982477</v>
+      </c>
+      <c r="E152">
+        <v>14</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2981,16 +3425,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-1.095246971060844</v>
+        <v>-0.6528038764353788</v>
       </c>
       <c r="C153">
-        <v>-1.257083660604053</v>
+        <v>1.642873623748512</v>
       </c>
       <c r="D153">
-        <v>-1.427424748513237</v>
+        <v>5.263087749767548</v>
+      </c>
+      <c r="E153">
+        <v>14</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -2998,16 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.631577262970179</v>
+        <v>-0.4741483764812984</v>
       </c>
       <c r="C154">
-        <v>-0.3302647742000545</v>
+        <v>0.208940222336177</v>
       </c>
       <c r="D154">
-        <v>-0.7664271396144603</v>
+        <v>0.3930103400738765</v>
+      </c>
+      <c r="E154">
+        <v>14</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3015,13 +3465,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.6724881340322081</v>
+        <v>-0.2548344718019213</v>
       </c>
       <c r="C155">
-        <v>0.01703400194529429</v>
+        <v>0.2105816531666682</v>
       </c>
       <c r="D155">
-        <v>-0.7202531423741482</v>
+        <v>0.1550190611015012</v>
+      </c>
+      <c r="E155">
+        <v>14</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -3032,16 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-1.623733541244806</v>
+        <v>0.2600886689504186</v>
       </c>
       <c r="C156">
-        <v>-1.454679319450926</v>
+        <v>2.574073547272598</v>
       </c>
       <c r="D156">
-        <v>-2.35486506787148</v>
+        <v>8.175614240912461</v>
+      </c>
+      <c r="E156">
+        <v>14</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3049,16 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.6494290206490047</v>
+        <v>-0.4683697670963345</v>
       </c>
       <c r="C157">
-        <v>-0.4022902636484529</v>
+        <v>0.2634961620757627</v>
       </c>
       <c r="D157">
-        <v>-0.8207672596436859</v>
+        <v>0.610793258199275</v>
+      </c>
+      <c r="E157">
+        <v>14</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3066,16 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-1.318129075608614</v>
+        <v>0.7784436003096118</v>
       </c>
       <c r="C158">
-        <v>-0.5384591085800681</v>
+        <v>1.690157749457447</v>
       </c>
       <c r="D158">
-        <v>-2.002740394201993</v>
+        <v>5.083192734597757</v>
+      </c>
+      <c r="E158">
+        <v>14</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3083,16 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-1.222939369076671</v>
+        <v>-0.2770562078578011</v>
       </c>
       <c r="C159">
-        <v>-0.82168311987134</v>
+        <v>1.849484428753789</v>
       </c>
       <c r="D159">
-        <v>-1.483851930976993</v>
+        <v>5.469966143551314</v>
+      </c>
+      <c r="E159">
+        <v>14</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-1.501854008101248</v>
+        <v>1.0439863800687</v>
       </c>
       <c r="C160">
-        <v>-0.7673642480219065</v>
+        <v>2.128246698204623</v>
       </c>
       <c r="D160">
-        <v>-2.391287357195486</v>
+        <v>6.587464800628569</v>
+      </c>
+      <c r="E160">
+        <v>14</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-1.552102083267585</v>
+        <v>0.7251524894071899</v>
       </c>
       <c r="C161">
-        <v>-1.006476670956074</v>
+        <v>3.105094487148548</v>
       </c>
       <c r="D161">
-        <v>-2.812218907464161</v>
+        <v>9.156312617781692</v>
+      </c>
+      <c r="E161">
+        <v>14</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-1.045950891029663</v>
+        <v>-0.7405798948072529</v>
       </c>
       <c r="C162">
-        <v>-1.035999645708768</v>
+        <v>1.221330199134638</v>
       </c>
       <c r="D162">
-        <v>-1.212963826309263</v>
+        <v>3.665686971191921</v>
+      </c>
+      <c r="E162">
+        <v>14</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,16 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.8614204222292197</v>
+        <v>0.2184649938666161</v>
       </c>
       <c r="C163">
-        <v>0.2794786175456013</v>
+        <v>0.5412001532651647</v>
       </c>
       <c r="D163">
-        <v>-0.953945868068878</v>
+        <v>0.9857340119091411</v>
+      </c>
+      <c r="E163">
+        <v>14</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.5493323424962625</v>
+        <v>-1.314196491190234</v>
       </c>
       <c r="C164">
-        <v>-0.8337311895976207</v>
+        <v>0.6769726980100552</v>
       </c>
       <c r="D164">
-        <v>-0.4671433553878784</v>
+        <v>2.353777822926513</v>
+      </c>
+      <c r="E164">
+        <v>14</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -3185,16 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-1.004384591486676</v>
+        <v>-0.8467049251400532</v>
       </c>
       <c r="C165">
-        <v>-1.404630356651128</v>
+        <v>1.453657553444336</v>
       </c>
       <c r="D165">
-        <v>-1.332468433654614</v>
+        <v>4.836464426559091</v>
+      </c>
+      <c r="E165">
+        <v>14</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3202,16 +3685,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.8153021954628126</v>
+        <v>-0.2086055967222102</v>
       </c>
       <c r="C166">
-        <v>-0.5591699136418931</v>
+        <v>0.6470291710833538</v>
       </c>
       <c r="D166">
-        <v>-1.154974102607953</v>
+        <v>1.897282406104688</v>
+      </c>
+      <c r="E166">
+        <v>14</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3219,16 +3705,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.2649049811860065</v>
+        <v>-1.474520638335961</v>
       </c>
       <c r="C167">
-        <v>-1.051145405505392</v>
+        <v>0.7804329333477282</v>
       </c>
       <c r="D167">
-        <v>-0.4435079268677861</v>
+        <v>3.278809569797426</v>
+      </c>
+      <c r="E167">
+        <v>14</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3236,16 +3725,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.7918163092876617</v>
+        <v>-0.6673133445755233</v>
       </c>
       <c r="C168">
-        <v>0.1752733151562823</v>
+        <v>1.456208075820867</v>
       </c>
       <c r="D168">
-        <v>-0.518581041678581</v>
+        <v>3.747334817854695</v>
+      </c>
+      <c r="E168">
+        <v>14</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3253,16 +3745,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-1.283319879100402</v>
+        <v>0.1489510911886507</v>
       </c>
       <c r="C169">
-        <v>-0.002430785613433989</v>
+        <v>1.451014785133487</v>
       </c>
       <c r="D169">
-        <v>-1.269797502332437</v>
+        <v>3.594472603617484</v>
+      </c>
+      <c r="E169">
+        <v>14</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3270,16 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.9506792106233475</v>
+        <v>0.2473580407914355</v>
       </c>
       <c r="C170">
-        <v>-0.08064882969639078</v>
+        <v>0.8139798519630932</v>
       </c>
       <c r="D170">
-        <v>-1.225646468215006</v>
+        <v>2.074648602536133</v>
+      </c>
+      <c r="E170">
+        <v>14</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.8562130665248416</v>
+        <v>0.01070830795716682</v>
       </c>
       <c r="C171">
-        <v>-0.2118711374965443</v>
+        <v>0.6486706019138448</v>
       </c>
       <c r="D171">
-        <v>-1.108800105367641</v>
+        <v>1.659291127132313</v>
+      </c>
+      <c r="E171">
+        <v>14</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,16 +3805,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-1.443091379360393</v>
+        <v>0.818893866004359</v>
       </c>
       <c r="C172">
-        <v>-1.042637534718857</v>
+        <v>2.072049327634546</v>
       </c>
       <c r="D172">
-        <v>-2.383121234406572</v>
+        <v>6.607673161475546</v>
+      </c>
+      <c r="E172">
+        <v>14</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3321,16 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.2783902493099534</v>
+        <v>-1.878220800996418</v>
       </c>
       <c r="C173">
-        <v>-1.445590513847255</v>
+        <v>0.9108776170891044</v>
       </c>
       <c r="D173">
-        <v>-0.8810437032632507</v>
+        <v>3.268530373052796</v>
+      </c>
+      <c r="E173">
+        <v>14</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.3176115993562788</v>
+        <v>-1.530381242036554</v>
       </c>
       <c r="C174">
-        <v>0.3004755665536282</v>
+        <v>0.5866946943266758</v>
       </c>
       <c r="D174">
-        <v>0.3092140734329518</v>
+        <v>1.028306624421236</v>
+      </c>
+      <c r="E174">
+        <v>14</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -3355,16 +3865,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.9038861906173847</v>
+        <v>-0.6510232472519359</v>
       </c>
       <c r="C175">
-        <v>-0.1705433383080429</v>
+        <v>0.7967778911416012</v>
       </c>
       <c r="D175">
-        <v>-0.6937379334672724</v>
+        <v>1.728293138936789</v>
+      </c>
+      <c r="E175">
+        <v>14</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3372,16 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-1.033651379752823</v>
+        <v>-0.4530449918932671</v>
       </c>
       <c r="C176">
-        <v>-0.3193667712949254</v>
+        <v>1.184865774217616</v>
       </c>
       <c r="D176">
-        <v>-0.9748196742314561</v>
+        <v>3.043037745363119</v>
+      </c>
+      <c r="E176">
+        <v>14</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3389,16 +3905,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.7656758286287201</v>
+        <v>-0.9872938727864294</v>
       </c>
       <c r="C177">
-        <v>-0.3600481771336431</v>
+        <v>0.6937946601251312</v>
       </c>
       <c r="D177">
-        <v>-0.5406065163078138</v>
+        <v>1.578919069723461</v>
+      </c>
+      <c r="E177">
+        <v>14</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3406,16 +3925,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.631577262970179</v>
+        <v>-0.4741483764812984</v>
       </c>
       <c r="C178">
-        <v>-0.3302647742000545</v>
+        <v>0.208940222336177</v>
       </c>
       <c r="D178">
-        <v>-0.7664271396144603</v>
+        <v>0.3930103400738765</v>
+      </c>
+      <c r="E178">
+        <v>14</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3423,16 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-1.010228819024721</v>
+        <v>-0.441514727412231</v>
       </c>
       <c r="C179">
-        <v>-0.5769508278569823</v>
+        <v>1.322756080694405</v>
       </c>
       <c r="D179">
-        <v>-1.093512990852217</v>
+        <v>3.945572613430653</v>
+      </c>
+      <c r="E179">
+        <v>14</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.2715929655607311</v>
+        <v>-1.733666962566029</v>
       </c>
       <c r="C180">
-        <v>0.02235890914848065</v>
+        <v>0.5288897211442147</v>
       </c>
       <c r="D180">
-        <v>0.2986301601512481</v>
+        <v>1.038542470496123</v>
+      </c>
+      <c r="E180">
+        <v>14</v>
       </c>
       <c r="F180">
         <v>2</v>
@@ -3457,16 +3985,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.6753032222432945</v>
+        <v>-0.94308813838848</v>
       </c>
       <c r="C181">
-        <v>0.1526268582199791</v>
+        <v>0.5983812310693364</v>
       </c>
       <c r="D181">
-        <v>-0.2451270084794162</v>
+        <v>0.9801558152909498</v>
+      </c>
+      <c r="E181">
+        <v>14</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3474,16 +4005,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.7795986801051615</v>
+        <v>-0.220162815492138</v>
       </c>
       <c r="C182">
-        <v>-0.4151189347450962</v>
+        <v>0.5379172916041823</v>
       </c>
       <c r="D182">
-        <v>-1.046293862549502</v>
+        <v>1.461716569853892</v>
+      </c>
+      <c r="E182">
+        <v>14</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-1.147048545090429</v>
+        <v>0.3109227440260383</v>
       </c>
       <c r="C183">
-        <v>-0.8729292136287733</v>
+        <v>1.414095189098536</v>
       </c>
       <c r="D183">
-        <v>-1.823387788536489</v>
+        <v>4.470260701915516</v>
+      </c>
+      <c r="E183">
+        <v>14</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,16 +4045,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-1.093493272053952</v>
+        <v>0.2935869158711466</v>
       </c>
       <c r="C184">
-        <v>-0.6568527452835781</v>
+        <v>1.250427369879779</v>
       </c>
       <c r="D184">
-        <v>-1.660367428448812</v>
+        <v>3.81691194753932</v>
+      </c>
+      <c r="E184">
+        <v>14</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3525,16 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.8562130665248416</v>
+        <v>0.01070830795716682</v>
       </c>
       <c r="C185">
-        <v>-0.2118711374965443</v>
+        <v>0.6486706019138448</v>
       </c>
       <c r="D185">
-        <v>-1.108800105367641</v>
+        <v>1.659291127132313</v>
+      </c>
+      <c r="E185">
+        <v>14</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3542,16 +4085,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-1.722936946248528</v>
+        <v>0.4560691028591388</v>
       </c>
       <c r="C186">
-        <v>-1.377109224577188</v>
+        <v>2.765749842476267</v>
       </c>
       <c r="D186">
-        <v>-2.484036301628766</v>
+        <v>8.606540560789542</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3559,16 +4105,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.9730655853500915</v>
+        <v>-0.4817112470665426</v>
       </c>
       <c r="C187">
-        <v>-0.1535501198783762</v>
+        <v>1.369734189384211</v>
       </c>
       <c r="D187">
-        <v>-0.8635405982196369</v>
+        <v>3.579727483827345</v>
+      </c>
+      <c r="E187">
+        <v>15</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3576,16 +4125,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.8101293941894577</v>
+        <v>-1.011000457654501</v>
       </c>
       <c r="C188">
-        <v>-0.5903079961100656</v>
+        <v>0.5677691249978143</v>
       </c>
       <c r="D188">
-        <v>-0.656225616160544</v>
+        <v>1.286605622110202</v>
+      </c>
+      <c r="E188">
+        <v>15</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3593,16 +4145,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-1.031732664974272</v>
+        <v>-0.8540205013555879</v>
       </c>
       <c r="C189">
-        <v>-1.303961861851348</v>
+        <v>1.398734936440053</v>
       </c>
       <c r="D189">
-        <v>-1.297028172876062</v>
+        <v>4.383503632628072</v>
+      </c>
+      <c r="E189">
+        <v>15</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.7060534354694494</v>
+        <v>-1.189089271522579</v>
       </c>
       <c r="C190">
-        <v>-0.5670871353264576</v>
+        <v>0.5808978796656226</v>
       </c>
       <c r="D190">
-        <v>-0.5031003215838314</v>
+        <v>1.368047826082255</v>
+      </c>
+      <c r="E190">
+        <v>15</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.5705219597068925</v>
+        <v>-1.371466372982295</v>
       </c>
       <c r="C191">
-        <v>-0.4007630858821185</v>
+        <v>0.484378887316798</v>
       </c>
       <c r="D191">
-        <v>-0.2475447989722069</v>
+        <v>1.010600022212815</v>
+      </c>
+      <c r="E191">
+        <v>15</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -3644,16 +4205,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-1.174101619095948</v>
+        <v>-0.6839338617534461</v>
       </c>
       <c r="C192">
-        <v>-1.746538301277891</v>
+        <v>1.807935389475746</v>
       </c>
       <c r="D192">
-        <v>-1.779994407258216</v>
+        <v>6.033486165546099</v>
+      </c>
+      <c r="E192">
+        <v>15</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3661,16 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.6137255052913535</v>
+        <v>-0.4799269858662623</v>
       </c>
       <c r="C193">
-        <v>-0.258239284751656</v>
+        <v>0.1543842825965913</v>
       </c>
       <c r="D193">
-        <v>-0.7120870195852347</v>
+        <v>0.1752274219484781</v>
+      </c>
+      <c r="E193">
+        <v>15</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3678,16 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.8205095511671905</v>
+        <v>-0.0008489108127609502</v>
       </c>
       <c r="C194">
-        <v>-0.06782015859974745</v>
+        <v>0.5395587224346736</v>
       </c>
       <c r="D194">
-        <v>-1.00011986530919</v>
+        <v>1.223725290881516</v>
+      </c>
+      <c r="E194">
+        <v>15</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3695,16 +4265,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-1.315899385042923</v>
+        <v>1.395935048652996</v>
       </c>
       <c r="C195">
-        <v>1.007615645994767</v>
+        <v>1.31319046377182</v>
       </c>
       <c r="D195">
-        <v>-1.483837562276477</v>
+        <v>2.844738470802842</v>
+      </c>
+      <c r="E195">
+        <v>15</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.7491025204518883</v>
+        <v>-0.02396334835261649</v>
       </c>
       <c r="C196">
-        <v>0.2202817991938462</v>
+        <v>0.3213349634763307</v>
       </c>
       <c r="D196">
-        <v>-0.7827593851922874</v>
+        <v>0.3525936183799228</v>
+      </c>
+      <c r="E196">
+        <v>15</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,16 +4305,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.6494290206490047</v>
+        <v>-0.4683697670963345</v>
       </c>
       <c r="C197">
-        <v>-0.4022902636484529</v>
+        <v>0.2634961620757627</v>
       </c>
       <c r="D197">
-        <v>-0.8207672596436859</v>
+        <v>0.610793258199275</v>
+      </c>
+      <c r="E197">
+        <v>15</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3746,16 +4325,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-1.211149343394769</v>
+        <v>-0.09859270269848242</v>
       </c>
       <c r="C198">
-        <v>-1.195772336585797</v>
+        <v>2.239747821058759</v>
       </c>
       <c r="D198">
-        <v>-1.748096735652114</v>
+        <v>7.514151941650022</v>
+      </c>
+      <c r="E198">
+        <v>15</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -3763,16 +4345,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-1.164900302769254</v>
+        <v>0.3167013534110021</v>
       </c>
       <c r="C199">
-        <v>-0.9449547030771718</v>
+        <v>1.468651128838122</v>
       </c>
       <c r="D199">
-        <v>-1.877727908565714</v>
+        <v>4.688043620040914</v>
+      </c>
+      <c r="E199">
+        <v>15</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3780,16 +4365,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-1.456033872569189</v>
+        <v>-0.2056967391562283</v>
       </c>
       <c r="C200">
-        <v>-1.674943542648544</v>
+        <v>2.224239600817437</v>
       </c>
       <c r="D200">
-        <v>-2.073234169701669</v>
+        <v>7.367640727616288</v>
+      </c>
+      <c r="E200">
+        <v>15</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -3797,16 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-1.163770215432002</v>
+        <v>-0.08108353246982358</v>
       </c>
       <c r="C201">
-        <v>0.008028409893045249</v>
+        <v>1.175253986761414</v>
       </c>
       <c r="D201">
-        <v>-1.059895929485469</v>
+        <v>2.735238862986127</v>
+      </c>
+      <c r="E201">
+        <v>15</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3814,16 +4405,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.9328274529445219</v>
+        <v>0.2415794314064716</v>
       </c>
       <c r="C202">
-        <v>-0.00862334024799237</v>
+        <v>0.7594239122235076</v>
       </c>
       <c r="D202">
-        <v>-1.171306348185781</v>
+        <v>1.856865684410735</v>
+      </c>
+      <c r="E202">
+        <v>15</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3831,16 +4425,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-1.471357848447975</v>
+        <v>1.240185847208221</v>
       </c>
       <c r="C203">
-        <v>-0.131963514082964</v>
+        <v>1.911664370076772</v>
       </c>
       <c r="D203">
-        <v>-2.127752879838271</v>
+        <v>5.4783418491546</v>
+      </c>
+      <c r="E203">
+        <v>15</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3848,16 +4445,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.6494290206490047</v>
+        <v>-0.4683697670963345</v>
       </c>
       <c r="C204">
-        <v>-0.4022902636484529</v>
+        <v>0.2634961620757627</v>
       </c>
       <c r="D204">
-        <v>-0.8207672596436859</v>
+        <v>0.610793258199275</v>
+      </c>
+      <c r="E204">
+        <v>15</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3865,16 +4465,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-2.402588188686684</v>
+        <v>1.708664211407385</v>
       </c>
       <c r="C205">
-        <v>-1.558839226552722</v>
+        <v>4.228767247455179</v>
       </c>
       <c r="D205">
-        <v>-3.572619778421476</v>
+        <v>13.83557892062562</v>
+      </c>
+      <c r="E205">
+        <v>15</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3882,16 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.8792721799080452</v>
+        <v>0.22424360325158</v>
       </c>
       <c r="C206">
-        <v>0.2074531280972028</v>
+        <v>0.5957560930047503</v>
       </c>
       <c r="D206">
-        <v>-1.008285988098104</v>
+        <v>1.203516930034539</v>
+      </c>
+      <c r="E206">
+        <v>15</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3899,16 +4505,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-1.121759741141533</v>
+        <v>0.7148788970750091</v>
       </c>
       <c r="C207">
-        <v>0.2538212753523145</v>
+        <v>1.090042412322004</v>
       </c>
       <c r="D207">
-        <v>-1.40499907388051</v>
+        <v>2.687580635218374</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3916,16 +4525,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.7081916493898592</v>
+        <v>-0.2432772530319935</v>
       </c>
       <c r="C208">
-        <v>-0.1270169769515025</v>
+        <v>0.3196935326458396</v>
       </c>
       <c r="D208">
-        <v>-0.8289333824325995</v>
+        <v>0.590584897352298</v>
+      </c>
+      <c r="E208">
+        <v>15</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -3933,16 +4545,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-1.560616636842103</v>
+        <v>1.269078894133041</v>
       </c>
       <c r="C209">
-        <v>-0.4920909613249561</v>
+        <v>2.1844440687747</v>
       </c>
       <c r="D209">
-        <v>-2.3994534799844</v>
+        <v>6.567256439781592</v>
+      </c>
+      <c r="E209">
+        <v>15</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3950,16 +4565,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.7974504377839871</v>
+        <v>-0.2143842061071741</v>
       </c>
       <c r="C210">
-        <v>-0.4871444241934946</v>
+        <v>0.5924732313437679</v>
       </c>
       <c r="D210">
-        <v>-1.100633982578728</v>
+        <v>1.67949948797929</v>
+      </c>
+      <c r="E210">
+        <v>15</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3967,16 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.7260434070686848</v>
+        <v>-0.2374986436470297</v>
       </c>
       <c r="C211">
-        <v>-0.199042466399901</v>
+        <v>0.3742494723854252</v>
       </c>
       <c r="D211">
-        <v>-0.8832735024618252</v>
+        <v>0.8083678154776963</v>
+      </c>
+      <c r="E211">
+        <v>15</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3984,16 +4605,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.8510057108204637</v>
+        <v>-0.1970483779522825</v>
       </c>
       <c r="C212">
-        <v>-0.7032208925386899</v>
+        <v>0.7561410505625252</v>
       </c>
       <c r="D212">
-        <v>-1.263654342666405</v>
+        <v>2.332848242355485</v>
+      </c>
+      <c r="E212">
+        <v>15</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4001,16 +4625,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.9225977127146263</v>
+        <v>-0.6685417531951636</v>
       </c>
       <c r="C213">
-        <v>-0.3108031562605773</v>
+        <v>0.9080332407706189</v>
       </c>
       <c r="D213">
-        <v>-0.7774181254315667</v>
+        <v>2.17715566155037</v>
+      </c>
+      <c r="E213">
+        <v>15</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4018,16 +4645,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.9328274529445219</v>
+        <v>0.2415794314064716</v>
       </c>
       <c r="C214">
-        <v>-0.00862334024799237</v>
+        <v>0.7594239122235076</v>
       </c>
       <c r="D214">
-        <v>-1.171306348185781</v>
+        <v>1.856865684410735</v>
+      </c>
+      <c r="E214">
+        <v>15</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4035,16 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-2.946014910022017</v>
+        <v>2.362870673561964</v>
       </c>
       <c r="C215">
-        <v>-2.801098583809573</v>
+        <v>5.662885390171163</v>
       </c>
       <c r="D215">
-        <v>-5.075740641440785</v>
+        <v>18.68968886415493</v>
+      </c>
+      <c r="E215">
+        <v>15</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4052,16 +4685,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-1.116354646282243</v>
+        <v>-1.02198981388651</v>
       </c>
       <c r="C216">
-        <v>-1.631205134836023</v>
+        <v>1.481645678512547</v>
       </c>
       <c r="D216">
-        <v>-1.429746782454861</v>
+        <v>4.802144630479245</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4069,16 +4705,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-1.362113383299314</v>
+        <v>-0.7533772520661187</v>
       </c>
       <c r="C217">
-        <v>-2.303737819197079</v>
+        <v>2.330660655555033</v>
       </c>
       <c r="D217">
-        <v>-2.148500370108647</v>
+        <v>8.051246626556688</v>
+      </c>
+      <c r="E217">
+        <v>15</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4086,16 +4725,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-1.162670612203562</v>
+        <v>0.9341928017543861</v>
       </c>
       <c r="C218">
-        <v>0.6011200514976633</v>
+        <v>1.091683843152495</v>
       </c>
       <c r="D218">
-        <v>-1.358825076640199</v>
+        <v>2.449589356245999</v>
+      </c>
+      <c r="E218">
+        <v>15</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4103,16 +4745,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.7438951647475104</v>
+        <v>-0.2317200342620658</v>
       </c>
       <c r="C219">
-        <v>-0.2710679558482993</v>
+        <v>0.4288054121250109</v>
       </c>
       <c r="D219">
-        <v>-0.9376136224910508</v>
+        <v>1.026150733603095</v>
+      </c>
+      <c r="E219">
+        <v>15</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4120,16 +4765,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-1.04457994004228</v>
+        <v>0.2145790206910742</v>
       </c>
       <c r="C220">
-        <v>-1.122708395146604</v>
+        <v>2.368815561304332</v>
       </c>
       <c r="D220">
-        <v>-1.701278298903476</v>
+        <v>8.745616598360485</v>
+      </c>
+      <c r="E220">
+        <v>16</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4137,16 +4785,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-1.270650122702145</v>
+        <v>0.1020736291289025</v>
       </c>
       <c r="C221">
-        <v>-0.6225811796862412</v>
+        <v>1.841435143213618</v>
       </c>
       <c r="D221">
-        <v>-1.566014102624153</v>
+        <v>5.636496187695385</v>
+      </c>
+      <c r="E221">
+        <v>16</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4154,16 +4805,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-1.835830048294556</v>
+        <v>0.9460232724735644</v>
       </c>
       <c r="C222">
-        <v>-2.627198302583622</v>
+        <v>3.272280001905432</v>
       </c>
       <c r="D222">
-        <v>-3.578603875049537</v>
+        <v>11.39889736023431</v>
+      </c>
+      <c r="E222">
+        <v>16</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4171,16 +4825,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.7710356556640316</v>
+        <v>-1.150800710334721</v>
       </c>
       <c r="C223">
-        <v>-0.8893699789453389</v>
+        <v>1.438422962430315</v>
       </c>
       <c r="D223">
-        <v>-0.8071033219644601</v>
+        <v>4.381528536595116</v>
+      </c>
+      <c r="E223">
+        <v>16</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4188,16 +4845,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.6851325360066558</v>
+        <v>-0.4568125483264067</v>
       </c>
       <c r="C224">
-        <v>-0.5463412425452497</v>
+        <v>0.372608041554934</v>
       </c>
       <c r="D224">
-        <v>-0.9294474997021374</v>
+        <v>1.046359094450072</v>
+      </c>
+      <c r="E224">
+        <v>16</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4205,16 +4865,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.8223652819890015</v>
+        <v>-0.88959033213048</v>
       </c>
       <c r="C225">
-        <v>-0.424524847603274</v>
+        <v>1.03429288144856</v>
       </c>
       <c r="D225">
-        <v>-0.6860979807367609</v>
+        <v>2.719094988703441</v>
+      </c>
+      <c r="E225">
+        <v>16</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4222,16 +4885,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.6851142773896123</v>
+        <v>-1.025373202933813</v>
       </c>
       <c r="C226">
-        <v>-0.121732141150663</v>
+        <v>0.824375069320872</v>
       </c>
       <c r="D226">
-        <v>-0.3718623142549992</v>
+        <v>1.899487975857636</v>
+      </c>
+      <c r="E226">
+        <v>16</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4239,16 +4905,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-1.664725160722045</v>
+        <v>0.754852545574465</v>
       </c>
       <c r="C227">
-        <v>-0.4309265729985911</v>
+        <v>2.907115258857451</v>
       </c>
       <c r="D227">
-        <v>-2.135443936765777</v>
+        <v>8.497665311248713</v>
+      </c>
+      <c r="E227">
+        <v>16</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4256,16 +4925,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-2.587445302203751</v>
+        <v>2.238275657158877</v>
       </c>
       <c r="C228">
-        <v>-1.977531871852593</v>
+        <v>5.091505576959292</v>
       </c>
       <c r="D228">
-        <v>-4.458989672893651</v>
+        <v>16.47827442509926</v>
+      </c>
+      <c r="E228">
+        <v>16</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4273,16 +4945,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>2.376273675821967</v>
+        <v>-1.002069278330038</v>
       </c>
       <c r="C229">
-        <v>0.4088762781459455</v>
+        <v>2.472963378087512</v>
       </c>
       <c r="D229">
-        <v>-2.192701268913778</v>
+        <v>5.427546059900292</v>
+      </c>
+      <c r="E229">
+        <v>16</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4290,16 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.3422090327283993</v>
+        <v>-0.9056518348909245</v>
       </c>
       <c r="C230">
-        <v>-0.08754743098249375</v>
+        <v>0.6443319282265241</v>
       </c>
       <c r="D230">
-        <v>-0.104077469297672</v>
+        <v>2.50329468239819</v>
+      </c>
+      <c r="E230">
+        <v>16</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4307,16 +4985,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-2.703546155517405</v>
+        <v>1.728778189003336</v>
       </c>
       <c r="C231">
-        <v>-2.473337165362793</v>
+        <v>5.051534908577639</v>
       </c>
       <c r="D231">
-        <v>-4.371294306587334</v>
+        <v>16.60876839540231</v>
+      </c>
+      <c r="E231">
+        <v>16</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4324,16 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.6272290157538479</v>
+        <v>-0.7744744304369653</v>
       </c>
       <c r="C232">
-        <v>-2.615588958070123</v>
+        <v>2.956780038920026</v>
       </c>
       <c r="D232">
-        <v>-2.720057319428207</v>
+        <v>10.12407656329577</v>
+      </c>
+      <c r="E232">
+        <v>16</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4341,16 +5025,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-1.009080890602604</v>
+        <v>-0.6592544213773651</v>
       </c>
       <c r="C233">
-        <v>-1.140574589019642</v>
+        <v>1.481496839156484</v>
       </c>
       <c r="D233">
-        <v>-1.285969460097088</v>
+        <v>4.845895696274902</v>
+      </c>
+      <c r="E233">
+        <v>16</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.6724881340322081</v>
+        <v>-0.2548344718019213</v>
       </c>
       <c r="C234">
-        <v>0.01703400194529429</v>
+        <v>0.2105816531666682</v>
       </c>
       <c r="D234">
-        <v>-0.7202531423741482</v>
+        <v>0.1550190611015012</v>
+      </c>
+      <c r="E234">
+        <v>16</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -4375,16 +5065,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.8691420979610167</v>
+        <v>-1.031063584392361</v>
       </c>
       <c r="C235">
-        <v>-1.151000815948609</v>
+        <v>2.234961695005884</v>
       </c>
       <c r="D235">
-        <v>-1.131766346598335</v>
+        <v>7.137336269894226</v>
+      </c>
+      <c r="E235">
+        <v>16</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4392,16 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-2.241627509368837</v>
+        <v>0.8015185794562465</v>
       </c>
       <c r="C236">
-        <v>-2.288679720395928</v>
+        <v>3.86860921179736</v>
       </c>
       <c r="D236">
-        <v>-3.263236492794682</v>
+        <v>12.94748509323955</v>
+      </c>
+      <c r="E236">
+        <v>16</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4409,16 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.7568477801565051</v>
+        <v>-1.742966362837001</v>
       </c>
       <c r="C237">
-        <v>-2.275761145891342</v>
+        <v>0.8301761293710566</v>
       </c>
       <c r="D237">
-        <v>0.07966696616038138</v>
+        <v>7.814647513086527</v>
+      </c>
+      <c r="E237">
+        <v>16</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4426,13 +5125,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.358374152699447</v>
+        <v>-4.498004954111623</v>
       </c>
       <c r="C238">
-        <v>0.4540707931837866</v>
+        <v>0.6776955118712926</v>
       </c>
       <c r="D238">
-        <v>2.724849843113631</v>
+        <v>2.082282671039877</v>
+      </c>
+      <c r="E238">
+        <v>17</v>
       </c>
       <c r="F238">
         <v>2</v>
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.5601702322548768</v>
+        <v>-0.4972628140211539</v>
       </c>
       <c r="C239">
-        <v>-0.04216281640646079</v>
+        <v>-0.0092835366221658</v>
       </c>
       <c r="D239">
-        <v>-0.5490666594975576</v>
+        <v>-0.4781213324277171</v>
+      </c>
+      <c r="E239">
+        <v>17</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -4460,16 +5165,19 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.6114412371679759</v>
+        <v>-0.8207813645865905</v>
       </c>
       <c r="C240">
-        <v>-1.209787274742357</v>
+        <v>1.552153046202052</v>
       </c>
       <c r="D240">
-        <v>-1.568631222642855</v>
+        <v>4.709886448860404</v>
+      </c>
+      <c r="E240">
+        <v>17</v>
       </c>
       <c r="F240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -4477,16 +5185,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-1.463304985735705</v>
+        <v>-0.2613492653213627</v>
       </c>
       <c r="C241">
-        <v>-2.015820655849771</v>
+        <v>3.075738506809667</v>
       </c>
       <c r="D241">
-        <v>-2.348785027308609</v>
+        <v>10.17444887071437</v>
+      </c>
+      <c r="E241">
+        <v>17</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -4494,16 +5205,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.9737383240065509</v>
+        <v>0.4608933360858487</v>
       </c>
       <c r="C242">
-        <v>0.3386754358973564</v>
+        <v>0.7610653430539986</v>
       </c>
       <c r="D242">
-        <v>-1.125132350945468</v>
+        <v>1.618874405438359</v>
+      </c>
+      <c r="E242">
+        <v>17</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -4511,16 +5225,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.7029842936854813</v>
+        <v>-0.4510339389414428</v>
       </c>
       <c r="C243">
-        <v>-0.6183667319936481</v>
+        <v>0.4271639812945198</v>
       </c>
       <c r="D243">
-        <v>-0.983787619731363</v>
+        <v>1.26414201257547</v>
+      </c>
+      <c r="E243">
+        <v>17</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -4528,16 +5245,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.631577262970179</v>
+        <v>-0.4741483764812984</v>
       </c>
       <c r="C244">
-        <v>-0.3302647742000545</v>
+        <v>0.208940222336177</v>
       </c>
       <c r="D244">
-        <v>-0.7664271396144603</v>
+        <v>0.3930103400738765</v>
+      </c>
+      <c r="E244">
+        <v>17</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -4545,16 +5265,19 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.7820092979955289</v>
+        <v>-0.9586451783242244</v>
       </c>
       <c r="C245">
-        <v>-0.4155208403606505</v>
+        <v>1.039383623054446</v>
       </c>
       <c r="D245">
-        <v>-0.6267228665131377</v>
+        <v>2.750674618815053</v>
+      </c>
+      <c r="E245">
+        <v>17</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -4562,16 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-1.119820778702678</v>
+        <v>0.3556192921127223</v>
       </c>
       <c r="C246">
-        <v>-0.9605903517695257</v>
+        <v>2.57675381065566</v>
       </c>
       <c r="D246">
-        <v>-1.761402399697843</v>
+        <v>9.190496911315106</v>
+      </c>
+      <c r="E246">
+        <v>17</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -4579,16 +5305,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-1.318629614026974</v>
+        <v>-0.953630833191591</v>
       </c>
       <c r="C247">
-        <v>-1.707673254047529</v>
+        <v>2.215741101293294</v>
       </c>
       <c r="D247">
-        <v>-1.500919975663419</v>
+        <v>7.308118646538085</v>
+      </c>
+      <c r="E247">
+        <v>17</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -4596,16 +5325,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-1.600924887381098</v>
+        <v>0.8145096659923576</v>
       </c>
       <c r="C248">
-        <v>-2.064594975189997</v>
+        <v>3.670750095656098</v>
       </c>
       <c r="D248">
-        <v>-2.91608601951846</v>
+        <v>13.2473134869391</v>
+      </c>
+      <c r="E248">
+        <v>17</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -4613,16 +5345,19 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.7669542781307139</v>
+        <v>-0.0181847389676526</v>
       </c>
       <c r="C249">
-        <v>0.1482563097454478</v>
+        <v>0.3758909032159164</v>
       </c>
       <c r="D249">
-        <v>-0.8370995052215131</v>
+        <v>0.5703765365053211</v>
+      </c>
+      <c r="E249">
+        <v>17</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -4630,16 +5365,19 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.5197510535722776</v>
+        <v>-0.6657034437868491</v>
       </c>
       <c r="C250">
-        <v>-1.251311409345532</v>
+        <v>1.583978086570969</v>
       </c>
       <c r="D250">
-        <v>-0.948392683179649</v>
+        <v>6.728280394382962</v>
+      </c>
+      <c r="E250">
+        <v>17</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -4647,16 +5385,19 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-1.825543385850402</v>
+        <v>1.004567379683057</v>
       </c>
       <c r="C251">
-        <v>-0.4830215330724436</v>
+        <v>2.595987203012914</v>
       </c>
       <c r="D251">
-        <v>-2.338043157472402</v>
+        <v>7.419036245631416</v>
+      </c>
+      <c r="E251">
+        <v>17</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -4664,16 +5405,19 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-2.664093831419144</v>
+        <v>2.698444230504284</v>
       </c>
       <c r="C252">
-        <v>-0.4120038154325599</v>
+        <v>4.744893101047115</v>
       </c>
       <c r="D252">
-        <v>-3.802145460796765</v>
+        <v>14.13831910698124</v>
+      </c>
+      <c r="E252">
+        <v>17</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -4681,16 +5425,19 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.8153021954628126</v>
+        <v>-0.2086055967222102</v>
       </c>
       <c r="C253">
-        <v>-0.5591699136418931</v>
+        <v>0.6470291710833538</v>
       </c>
       <c r="D253">
-        <v>-1.154974102607953</v>
+        <v>1.897282406104688</v>
+      </c>
+      <c r="E253">
+        <v>17</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-1.448529710010579</v>
+        <v>-1.751267839048212</v>
       </c>
       <c r="C254">
-        <v>-1.381515444312903</v>
+        <v>1.582721233005901</v>
       </c>
       <c r="D254">
-        <v>0.394121071129846</v>
+        <v>6.943991047302541</v>
+      </c>
+      <c r="E254">
+        <v>17</v>
       </c>
       <c r="F254">
         <v>2</v>
@@ -4715,16 +5465,19 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-1.00841744343509</v>
+        <v>-0.5464602449575776</v>
       </c>
       <c r="C255">
-        <v>-0.3979932894860257</v>
+        <v>0.9540152999108196</v>
       </c>
       <c r="D255">
-        <v>-0.9317584378374208</v>
+        <v>2.341751834224632</v>
+      </c>
+      <c r="E255">
+        <v>17</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -4732,16 +5485,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-1.835789596012995</v>
+        <v>1.450003074727108</v>
       </c>
       <c r="C256">
-        <v>-1.251721394285523</v>
+        <v>4.447093484617569</v>
       </c>
       <c r="D256">
-        <v>-3.734721366276383</v>
+        <v>13.4668021467985</v>
+      </c>
+      <c r="E256">
+        <v>17</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -4749,16 +5505,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.6637727035721522</v>
+        <v>-1.383179716288422</v>
       </c>
       <c r="C257">
-        <v>-1.053351487216682</v>
+        <v>1.913218837493609</v>
       </c>
       <c r="D257">
-        <v>-0.7675244613455129</v>
+        <v>6.113506356588608</v>
+      </c>
+      <c r="E257">
+        <v>17</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -4766,16 +5525,19 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-1.64907158079369</v>
+        <v>0.4162362712729507</v>
       </c>
       <c r="C258">
-        <v>-2.415577553457172</v>
+        <v>3.714439369611456</v>
       </c>
       <c r="D258">
-        <v>-3.266793507226953</v>
+        <v>12.68945362539029</v>
+      </c>
+      <c r="E258">
+        <v>17</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -4783,16 +5545,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-1.217931199314013</v>
+        <v>-0.03724315364854625</v>
       </c>
       <c r="C259">
-        <v>-0.1919691273487917</v>
+        <v>1.629686895401169</v>
       </c>
       <c r="D259">
-        <v>-1.257817525761014</v>
+        <v>4.340898162533168</v>
+      </c>
+      <c r="E259">
+        <v>17</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4800,16 +5565,19 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-1.004234483659824</v>
+        <v>0.2646938689463272</v>
       </c>
       <c r="C260">
-        <v>-0.296725298041586</v>
+        <v>0.9776476711818503</v>
       </c>
       <c r="D260">
-        <v>-1.388666828302684</v>
+        <v>2.727997356912328</v>
+      </c>
+      <c r="E260">
+        <v>17</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -4817,16 +5585,19 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.9622443490375203</v>
+        <v>-0.4761594294331226</v>
       </c>
       <c r="C261">
-        <v>-0.03126481350133169</v>
+        <v>0.9666420152592727</v>
       </c>
       <c r="D261">
-        <v>-0.7574591941145534</v>
+        <v>2.171906072861526</v>
+      </c>
+      <c r="E261">
+        <v>17</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.6546363763533826</v>
+        <v>-0.2606130811868852</v>
       </c>
       <c r="C262">
-        <v>0.08905949139369269</v>
+        <v>0.1560257134270825</v>
       </c>
       <c r="D262">
-        <v>-0.6659130223449226</v>
+        <v>-0.0627638570238972</v>
+      </c>
+      <c r="E262">
+        <v>17</v>
       </c>
       <c r="F262">
         <v>1</v>
@@ -4851,13 +5625,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.448746693772865</v>
+        <v>-5.022770092815331</v>
       </c>
       <c r="C263">
-        <v>-0.6500601732781669</v>
+        <v>2.23651234727017</v>
       </c>
       <c r="D263">
-        <v>2.312516448430211</v>
+        <v>7.998361327448078</v>
+      </c>
+      <c r="E263">
+        <v>17</v>
       </c>
       <c r="F263">
         <v>2</v>
@@ -4868,13 +5645,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.09656527022311756</v>
+        <v>-2.008396025547681</v>
       </c>
       <c r="C264">
-        <v>0.1294526373313076</v>
+        <v>0.4941608802907066</v>
       </c>
       <c r="D264">
-        <v>0.5842207250514272</v>
+        <v>0.94375390122648</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
       </c>
       <c r="F264">
         <v>2</v>
@@ -4885,16 +5665,19 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-2.453952495356375</v>
+        <v>3.000748945977453</v>
       </c>
       <c r="C265">
-        <v>-0.5098661695530609</v>
+        <v>4.050836035734052</v>
       </c>
       <c r="D265">
-        <v>-3.923799580295888</v>
+        <v>12.30593670323851</v>
+      </c>
+      <c r="E265">
+        <v>18</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -4902,13 +5685,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.7130311437876373</v>
+        <v>-1.15168132408876</v>
       </c>
       <c r="C266">
-        <v>-0.5524298895771976</v>
+        <v>0.8708591677804278</v>
       </c>
       <c r="D266">
-        <v>-0.5473765758070086</v>
+        <v>2.315372113867058</v>
+      </c>
+      <c r="E266">
+        <v>18</v>
       </c>
       <c r="F266">
         <v>2</v>
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-0.4153135713325448</v>
+        <v>-1.460872812339722</v>
       </c>
       <c r="C267">
-        <v>-0.09715003233988097</v>
+        <v>1.496900180449839</v>
       </c>
       <c r="D267">
-        <v>-0.07100408905928957</v>
+        <v>4.24793565249206</v>
+      </c>
+      <c r="E267">
+        <v>18</v>
       </c>
       <c r="F267">
         <v>2</v>
@@ -4936,16 +5725,19 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-0.7386878090431325</v>
+        <v>-0.4394767201715151</v>
       </c>
       <c r="C268">
-        <v>-0.762417710890445</v>
+        <v>0.5362758607736913</v>
       </c>
       <c r="D268">
-        <v>-1.092467859789814</v>
+        <v>1.699707848826267</v>
+      </c>
+      <c r="E268">
+        <v>18</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -4953,16 +5745,19 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.802657793488365</v>
+        <v>-0.006627520197724834</v>
       </c>
       <c r="C269">
-        <v>0.004205330848650962</v>
+        <v>0.4850027826950878</v>
       </c>
       <c r="D269">
-        <v>-0.9457797452799644</v>
+        <v>1.005942372756118</v>
+      </c>
+      <c r="E269">
+        <v>18</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -4970,16 +5765,19 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-2.320805170761532</v>
+        <v>1.927293860120422</v>
       </c>
       <c r="C270">
-        <v>-2.534462008073399</v>
+        <v>4.260852640539938</v>
       </c>
       <c r="D270">
-        <v>-4.372030046614351</v>
+        <v>14.36702477060198</v>
+      </c>
+      <c r="E270">
+        <v>18</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -4987,16 +5785,19 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-1.282425560250963</v>
+        <v>0.766886381539684</v>
       </c>
       <c r="C271">
-        <v>-0.3944081296832712</v>
+        <v>1.581045869978275</v>
       </c>
       <c r="D271">
-        <v>-1.894060154143542</v>
+        <v>4.64762689834696</v>
+      </c>
+      <c r="E271">
+        <v>18</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5004,16 +5805,19 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-1.858214368438204</v>
+        <v>0.6882478703134325</v>
       </c>
       <c r="C272">
-        <v>-1.459120014414033</v>
+        <v>3.096334514356657</v>
       </c>
       <c r="D272">
-        <v>-2.74515298849319</v>
+        <v>9.685219305341645</v>
+      </c>
+      <c r="E272">
+        <v>18</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5021,13 +5825,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>-0.3548842268029245</v>
+        <v>-1.665448616163115</v>
       </c>
       <c r="C273">
-        <v>-0.2003520908491738</v>
+        <v>0.6888064676007404</v>
       </c>
       <c r="D273">
-        <v>0.09185971589879538</v>
+        <v>1.668622023737447</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
       </c>
       <c r="F273">
         <v>2</v>
@@ -5038,19 +5845,19 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>-0.2701688215237019</v>
+        <v>-0.6211798701247241</v>
       </c>
       <c r="C274">
-        <v>-2.232743177561101</v>
+        <v>2.070521268932183</v>
       </c>
       <c r="D274">
-        <v>-1.249856146601085</v>
+        <v>10.25974621149472</v>
       </c>
       <c r="E274">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -5058,19 +5865,19 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>-0.9572382338579575</v>
+        <v>-0.7076402609217141</v>
       </c>
       <c r="C275">
-        <v>-0.6425303993303577</v>
+        <v>1.478544306876545</v>
       </c>
       <c r="D275">
-        <v>-1.002769805459552</v>
+        <v>4.261595028027258</v>
       </c>
       <c r="E275">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -5078,19 +5885,19 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>-1.899226887054188</v>
+        <v>0.6600527593543155</v>
       </c>
       <c r="C276">
-        <v>-1.792268942837911</v>
+        <v>3.66604177915639</v>
       </c>
       <c r="D276">
-        <v>-2.979879686556484</v>
+        <v>11.76467241443249</v>
       </c>
       <c r="E276">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -5098,19 +5905,19 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>-0.7438951647475104</v>
+        <v>-0.2317200342620658</v>
       </c>
       <c r="C277">
-        <v>-0.2710679558482993</v>
+        <v>0.4288054121250109</v>
       </c>
       <c r="D277">
-        <v>-0.9376136224910508</v>
+        <v>1.026150733603095</v>
       </c>
       <c r="E277">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -5118,19 +5925,19 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>-1.667727182915056</v>
+        <v>1.303750550442824</v>
       </c>
       <c r="C278">
-        <v>-0.9242438980153466</v>
+        <v>2.511779707212214</v>
       </c>
       <c r="D278">
-        <v>-2.725494200159754</v>
+        <v>7.873953948533982</v>
       </c>
       <c r="E278">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -5138,19 +5945,19 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>-2.111791434320003</v>
+        <v>2.065707233410305</v>
       </c>
       <c r="C279">
-        <v>-1.178806379650472</v>
+        <v>3.49871091501623</v>
       </c>
       <c r="D279">
-        <v>-3.565094368964879</v>
+        <v>11.08007263787403</v>
       </c>
       <c r="E279">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -5158,19 +5965,19 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>-1.139611498820359</v>
+        <v>0.720657506459973</v>
       </c>
       <c r="C280">
-        <v>0.1817957859039161</v>
+        <v>1.14459835206159</v>
       </c>
       <c r="D280">
-        <v>-1.459339193909736</v>
+        <v>2.905363553343773</v>
       </c>
       <c r="E280">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -5178,19 +5985,19 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>-0.6165426480855362</v>
+        <v>-1.639474538150667</v>
       </c>
       <c r="C281">
-        <v>-1.363626006828546</v>
+        <v>1.273883685469153</v>
       </c>
       <c r="D281">
-        <v>-0.7083059022514808</v>
+        <v>4.219121112321804</v>
       </c>
       <c r="E281">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -5198,19 +6005,19 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>-1.250937676842059</v>
+        <v>-0.3007898572881714</v>
       </c>
       <c r="C282">
-        <v>-0.3962628595518534</v>
+        <v>1.419272110554207</v>
       </c>
       <c r="D282">
-        <v>-1.0457066561384</v>
+        <v>4.047776284205831</v>
       </c>
       <c r="E282">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -5218,19 +6025,19 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>-3.958179075736197</v>
+        <v>3.696245383303462</v>
       </c>
       <c r="C283">
-        <v>-4.234442329215232</v>
+        <v>8.714263087069746</v>
       </c>
       <c r="D283">
-        <v>-7.315707551949563</v>
+        <v>29.00297853713782</v>
       </c>
       <c r="E283">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -5238,19 +6045,19 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>-3.406179804693391</v>
+        <v>3.051491263896866</v>
       </c>
       <c r="C284">
-        <v>-3.209726864719321</v>
+        <v>6.683527984129463</v>
       </c>
       <c r="D284">
-        <v>-5.826979095993094</v>
+        <v>22.47215561776129</v>
       </c>
       <c r="E284">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F284">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -5258,19 +6065,19 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>-0.8919165818824928</v>
+        <v>0.02226552672709459</v>
       </c>
       <c r="C285">
-        <v>-0.3559221163933411</v>
+        <v>0.7577824813930163</v>
       </c>
       <c r="D285">
-        <v>-1.217480345426093</v>
+        <v>2.09485696338311</v>
       </c>
       <c r="E285">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -5278,19 +6085,19 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>-1.156081170172146</v>
+        <v>-0.09284098973915778</v>
       </c>
       <c r="C286">
-        <v>-0.09391290931834546</v>
+        <v>1.871522654225927</v>
       </c>
       <c r="D286">
-        <v>-1.172753515672494</v>
+        <v>5.110329591280925</v>
       </c>
       <c r="E286">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -5298,19 +6105,19 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>-2.183198465035305</v>
+        <v>2.088821670950161</v>
       </c>
       <c r="C287">
-        <v>-1.466908337444066</v>
+        <v>3.716934673974573</v>
       </c>
       <c r="D287">
-        <v>-3.782454849081782</v>
+        <v>11.95120431037562</v>
       </c>
       <c r="E287">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -5318,19 +6125,19 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>-1.295069962225411</v>
+        <v>0.5649083050151986</v>
       </c>
       <c r="C288">
-        <v>-0.9577833741738151</v>
+        <v>1.743072258366541</v>
       </c>
       <c r="D288">
-        <v>-2.103254511471531</v>
+        <v>5.538966931695531</v>
       </c>
       <c r="E288">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -5338,19 +6145,19 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>-0.802657793488365</v>
+        <v>-0.006627520197724834</v>
       </c>
       <c r="C289">
-        <v>0.004205330848650962</v>
+        <v>0.4850027826950878</v>
       </c>
       <c r="D289">
-        <v>-0.9457797452799644</v>
+        <v>1.005942372756118</v>
       </c>
       <c r="E289">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -5358,19 +6165,19 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>-1.992426741830463</v>
+        <v>1.341064796969094</v>
       </c>
       <c r="C290">
-        <v>-0.4878274900722865</v>
+        <v>3.156618547893908</v>
       </c>
       <c r="D290">
-        <v>-2.65159609876617</v>
+        <v>9.194014643935963</v>
       </c>
       <c r="E290">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -5378,19 +6185,19 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>-1.869588437236235</v>
+        <v>1.304248996863492</v>
       </c>
       <c r="C291">
-        <v>0.01587704094846977</v>
+        <v>2.774459035948077</v>
       </c>
       <c r="D291">
-        <v>-2.274340264573361</v>
+        <v>7.667872131262826</v>
       </c>
       <c r="E291">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -5398,19 +6205,19 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>-0.7081916493898592</v>
+        <v>-0.2432772530319935</v>
       </c>
       <c r="C292">
-        <v>-0.1270169769515025</v>
+        <v>0.3196935326458396</v>
       </c>
       <c r="D292">
-        <v>-0.8289333824325995</v>
+        <v>0.590584897352298</v>
       </c>
       <c r="E292">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
